--- a/Incontactables.xlsx
+++ b/Incontactables.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B4F95FA-4D4E-4CE7-AED4-BCCF3D5A150C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D02795DF-04C1-4E9B-A3F2-B16C0A7CE040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="4360" windowWidth="22250" windowHeight="16380" xr2:uid="{50F17D5E-860E-4C0E-A2B3-1FBAE1B35FFF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{1B6AD9FD-13E6-454A-9826-14520F4DE517}"/>
   </bookViews>
   <sheets>
-    <sheet name="report1753310564362" sheetId="1" r:id="rId1"/>
+    <sheet name="report1754951208249" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">report1753310564362!$A$1:$D$689</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">report1754951208249!$A$1:$D$759</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="1532">
   <si>
     <t>Delv Ship-To Party</t>
   </si>
@@ -103,6 +103,12 @@
     <t>Walmart</t>
   </si>
   <si>
+    <t>3000034379</t>
+  </si>
+  <si>
+    <t>BA 3890 La Piedad</t>
+  </si>
+  <si>
     <t>3000085988</t>
   </si>
   <si>
@@ -229,6 +235,12 @@
     <t>Sams Club 6223 Irapuato</t>
   </si>
   <si>
+    <t>4000004021</t>
+  </si>
+  <si>
+    <t>HIPER 112 PROGRESO</t>
+  </si>
+  <si>
     <t>4000004030</t>
   </si>
   <si>
@@ -343,6 +355,12 @@
     <t>Industrial y Comercial Nitram SA</t>
   </si>
   <si>
+    <t>4000053195</t>
+  </si>
+  <si>
+    <t>SUPER 338 RIO TIJUANA</t>
+  </si>
+  <si>
     <t>4000053196</t>
   </si>
   <si>
@@ -421,12 +439,6 @@
     <t>MERCADO 885 IZCALLI CENTRO URBANO</t>
   </si>
   <si>
-    <t>4000060276</t>
-  </si>
-  <si>
-    <t>MERCADO 899 CENTER PLAZA ARAGON</t>
-  </si>
-  <si>
     <t>4000061003</t>
   </si>
   <si>
@@ -469,6 +481,12 @@
     <t>BA 5711 San Pablo</t>
   </si>
   <si>
+    <t>4000062860</t>
+  </si>
+  <si>
+    <t>BA 5733 Chimalhuacan</t>
+  </si>
+  <si>
     <t>4000062981</t>
   </si>
   <si>
@@ -658,6 +676,12 @@
     <t>Centro Comercial Meraz SA de CV</t>
   </si>
   <si>
+    <t>4000093329</t>
+  </si>
+  <si>
+    <t>HIPER 146 SAN JOSE DEL CABO</t>
+  </si>
+  <si>
     <t>4000094989</t>
   </si>
   <si>
@@ -673,6 +697,12 @@
     <t>Casa Ley</t>
   </si>
   <si>
+    <t>4000095929</t>
+  </si>
+  <si>
+    <t>BA 1073 Ocotlan</t>
+  </si>
+  <si>
     <t>4000095931</t>
   </si>
   <si>
@@ -952,12 +982,6 @@
     <t>Sams Club 4960 San Jose Tecamac</t>
   </si>
   <si>
-    <t>4000139196</t>
-  </si>
-  <si>
-    <t>MERCADO 219 TAPACHULA</t>
-  </si>
-  <si>
     <t>4000139587</t>
   </si>
   <si>
@@ -1108,6 +1132,12 @@
     <t>BAE 1535 Congreso de la Union</t>
   </si>
   <si>
+    <t>4000164351</t>
+  </si>
+  <si>
+    <t>BAE 1740 Rancho San Antonio</t>
+  </si>
+  <si>
     <t>4000164861</t>
   </si>
   <si>
@@ -1126,6 +1156,18 @@
     <t>BA 1690 Aeropuerto</t>
   </si>
   <si>
+    <t>4000165969</t>
+  </si>
+  <si>
+    <t>BAE 1644 Portales</t>
+  </si>
+  <si>
+    <t>4000166000</t>
+  </si>
+  <si>
+    <t>BAE 1738 Lagunilla</t>
+  </si>
+  <si>
     <t>4000167074</t>
   </si>
   <si>
@@ -1180,6 +1222,18 @@
     <t>MI BA 1758 Pinotepa Nacional</t>
   </si>
   <si>
+    <t>4000174127</t>
+  </si>
+  <si>
+    <t>BAE 1942 Tezozomoc</t>
+  </si>
+  <si>
+    <t>4000174133</t>
+  </si>
+  <si>
+    <t>BAE 1790 Santa Ursula</t>
+  </si>
+  <si>
     <t>4000174629</t>
   </si>
   <si>
@@ -1222,12 +1276,30 @@
     <t>BA 1428 San Mateo Atenco</t>
   </si>
   <si>
+    <t>4000181255</t>
+  </si>
+  <si>
+    <t>BAE 1996 Popocatepetl</t>
+  </si>
+  <si>
     <t>4000185394</t>
   </si>
   <si>
     <t>Super Che 0650 Ciudad Azteca</t>
   </si>
   <si>
+    <t>4000185567</t>
+  </si>
+  <si>
+    <t>BAE 2153 Miguel Hidalgo</t>
+  </si>
+  <si>
+    <t>4000185588</t>
+  </si>
+  <si>
+    <t>BAE 2150 Kennedy</t>
+  </si>
+  <si>
     <t>4000185593</t>
   </si>
   <si>
@@ -1276,6 +1348,12 @@
     <t>BA 1867 Felix Galvan</t>
   </si>
   <si>
+    <t>4000193674</t>
+  </si>
+  <si>
+    <t>BAE 2714 Avenida Girasol</t>
+  </si>
+  <si>
     <t>4000194354</t>
   </si>
   <si>
@@ -1288,12 +1366,30 @@
     <t>WM 4036 Guaymas</t>
   </si>
   <si>
+    <t>4000194359</t>
+  </si>
+  <si>
+    <t>BAE 2844 Cuautepec La Pastora</t>
+  </si>
+  <si>
     <t>4000194362</t>
   </si>
   <si>
     <t>BAE 2292 Heroes de Padierna</t>
   </si>
   <si>
+    <t>4000194379</t>
+  </si>
+  <si>
+    <t>BAE 2275 Real del Valle</t>
+  </si>
+  <si>
+    <t>4000194381</t>
+  </si>
+  <si>
+    <t>BAE 2118 Cuautepec Madero</t>
+  </si>
+  <si>
     <t>4000194578</t>
   </si>
   <si>
@@ -1366,6 +1462,12 @@
     <t>BA 2740 Talamas Camandari</t>
   </si>
   <si>
+    <t>4000199902</t>
+  </si>
+  <si>
+    <t>BAE 2255 Panteon Frances</t>
+  </si>
+  <si>
     <t>4000200577</t>
   </si>
   <si>
@@ -1390,12 +1492,24 @@
     <t>BAE 1604 Ferrocarril de Cintura</t>
   </si>
   <si>
+    <t>4000202049</t>
+  </si>
+  <si>
+    <t>Sams Club 6212 Cardenas</t>
+  </si>
+  <si>
     <t>4000202177</t>
   </si>
   <si>
     <t>BA 1400 Joyas de Coacalco</t>
   </si>
   <si>
+    <t>4000202902</t>
+  </si>
+  <si>
+    <t>BAE 3331 Cosmopolita</t>
+  </si>
+  <si>
     <t>4000202929</t>
   </si>
   <si>
@@ -1408,6 +1522,12 @@
     <t>Superama 2830 Jardines</t>
   </si>
   <si>
+    <t>4000202967</t>
+  </si>
+  <si>
+    <t>BAE 3372 Ampliacion El Tesoro</t>
+  </si>
+  <si>
     <t>4000204255</t>
   </si>
   <si>
@@ -1462,6 +1582,12 @@
     <t>Abarrotes Casa Vargas Zaragoza</t>
   </si>
   <si>
+    <t>4000211186</t>
+  </si>
+  <si>
+    <t>BAE 3317 Centauro del Norte</t>
+  </si>
+  <si>
     <t>4000212656</t>
   </si>
   <si>
@@ -1474,6 +1600,12 @@
     <t>BA 4076 Aeropuerto Zapata</t>
   </si>
   <si>
+    <t>4000213649</t>
+  </si>
+  <si>
+    <t>BAE 3530 Infonavit La Joya</t>
+  </si>
+  <si>
     <t>4000222763</t>
   </si>
   <si>
@@ -1540,6 +1672,12 @@
     <t>BAE 2258 Sasatras</t>
   </si>
   <si>
+    <t>4000229601</t>
+  </si>
+  <si>
+    <t>CEDIS Chedraui Guadalajara</t>
+  </si>
+  <si>
     <t>4000229699</t>
   </si>
   <si>
@@ -1630,6 +1768,12 @@
     <t>Casa Ley 1149 el dorado</t>
   </si>
   <si>
+    <t>4000233430</t>
+  </si>
+  <si>
+    <t>BAE 1271 Torre Magnolias</t>
+  </si>
+  <si>
     <t>4000233462</t>
   </si>
   <si>
@@ -1684,6 +1828,12 @@
     <t>MERCADO 540 CENTRAL SALTILLO</t>
   </si>
   <si>
+    <t>4000233514</t>
+  </si>
+  <si>
+    <t>MERCADO 539 CASAS GRANDES</t>
+  </si>
+  <si>
     <t>4000234278</t>
   </si>
   <si>
@@ -1804,6 +1954,12 @@
     <t>WM 1834 Plaza del Lago</t>
   </si>
   <si>
+    <t>4000252529</t>
+  </si>
+  <si>
+    <t>BAE 5636 Ribera San Cosme</t>
+  </si>
+  <si>
     <t>4000252803</t>
   </si>
   <si>
@@ -1852,12 +2008,6 @@
     <t>SUPER 550 LA OBRERA (FEMA)</t>
   </si>
   <si>
-    <t>4000262759</t>
-  </si>
-  <si>
-    <t>EXPRESS 602 CUATRO CIENEGAS</t>
-  </si>
-  <si>
     <t>4000262763</t>
   </si>
   <si>
@@ -2050,6 +2200,12 @@
     <t>WM 1804 Macroplaza Oaxaca</t>
   </si>
   <si>
+    <t>4000297584</t>
+  </si>
+  <si>
+    <t>MI BA 1586 Cienega de Flores</t>
+  </si>
+  <si>
     <t>4000297605</t>
   </si>
   <si>
@@ -2104,6 +2260,12 @@
     <t>Adelco Almacen San Luis Potosi</t>
   </si>
   <si>
+    <t>4000318523</t>
+  </si>
+  <si>
+    <t>BA 3527 Chetumal Nt</t>
+  </si>
+  <si>
     <t>4000318524</t>
   </si>
   <si>
@@ -2254,12 +2416,24 @@
     <t>To Be Central de Abastos</t>
   </si>
   <si>
+    <t>4000372658</t>
+  </si>
+  <si>
+    <t>BAE 4189 Camino Santa Fe</t>
+  </si>
+  <si>
     <t>4000372659</t>
   </si>
   <si>
     <t>BAE 4621 Zacatenco</t>
   </si>
   <si>
+    <t>4000372662</t>
+  </si>
+  <si>
+    <t>BAE 4622 Plaza Legaria</t>
+  </si>
+  <si>
     <t>4000372792</t>
   </si>
   <si>
@@ -2290,6 +2464,12 @@
     <t>BAE 2322 Sta. Catarina</t>
   </si>
   <si>
+    <t>4000374912</t>
+  </si>
+  <si>
+    <t>BAE 3388 Grijalva San Isidro</t>
+  </si>
+  <si>
     <t>4000375242</t>
   </si>
   <si>
@@ -2314,6 +2494,18 @@
     <t>MIBA 2427 Teolocholco</t>
   </si>
   <si>
+    <t>4000375341</t>
+  </si>
+  <si>
+    <t>BAE 4176 Amp. Las Aguilas</t>
+  </si>
+  <si>
+    <t>4000376709</t>
+  </si>
+  <si>
+    <t>BAE 1362 Acuitlapilco</t>
+  </si>
+  <si>
     <t>4000378586</t>
   </si>
   <si>
@@ -2326,6 +2518,12 @@
     <t>MIBA 4146 Villa Avila Camacho</t>
   </si>
   <si>
+    <t>4000379254</t>
+  </si>
+  <si>
+    <t>Super Chedruai Capulhuac 737</t>
+  </si>
+  <si>
     <t>4000379268</t>
   </si>
   <si>
@@ -2434,6 +2632,12 @@
     <t>Banco de Alimentos de Saltillo, A.C.</t>
   </si>
   <si>
+    <t>4000440065</t>
+  </si>
+  <si>
+    <t>BAE 4662 Santa Maria la Ribera</t>
+  </si>
+  <si>
     <t>4000441052</t>
   </si>
   <si>
@@ -2626,12 +2830,6 @@
     <t>Food Service Pacifico Centro</t>
   </si>
   <si>
-    <t>4000576621</t>
-  </si>
-  <si>
-    <t>Food Service Pacifico Culiacán</t>
-  </si>
-  <si>
     <t>4000577680</t>
   </si>
   <si>
@@ -2692,12 +2890,30 @@
     <t>WM 4922 Purisima del Rincón</t>
   </si>
   <si>
+    <t>6100264760</t>
+  </si>
+  <si>
+    <t>Sams Club 6394 Plaza Oriente</t>
+  </si>
+  <si>
     <t>6100264831</t>
   </si>
   <si>
     <t>Sams Club 6468 Miguel Aleman</t>
   </si>
   <si>
+    <t>6100264895</t>
+  </si>
+  <si>
+    <t>Sams Club 8118 Aguascalientes</t>
+  </si>
+  <si>
+    <t>6100303987</t>
+  </si>
+  <si>
+    <t>Cedis Decasa Cortazar SA de CV</t>
+  </si>
+  <si>
     <t>6100304566</t>
   </si>
   <si>
@@ -2800,6 +3016,12 @@
     <t>BA 3874 Cantil</t>
   </si>
   <si>
+    <t>6100423429</t>
+  </si>
+  <si>
+    <t>WM 2356 Queretaro</t>
+  </si>
+  <si>
     <t>6100423697</t>
   </si>
   <si>
@@ -2812,6 +3034,12 @@
     <t>Superama 3813 Churubusco</t>
   </si>
   <si>
+    <t>6100490016</t>
+  </si>
+  <si>
+    <t>Abarrotes Sahuayo Veracruz</t>
+  </si>
+  <si>
     <t>6100505377</t>
   </si>
   <si>
@@ -2854,6 +3082,12 @@
     <t>Nieto Comercial y Compañia SA de CV</t>
   </si>
   <si>
+    <t>6100711108</t>
+  </si>
+  <si>
+    <t>Union de Compras de Comerciantes Detalli</t>
+  </si>
+  <si>
     <t>6100715015</t>
   </si>
   <si>
@@ -2866,6 +3100,12 @@
     <t>Distribuidora Abarrotera Nueva España</t>
   </si>
   <si>
+    <t>6100767995</t>
+  </si>
+  <si>
+    <t>Cedis Calimax Tijuana</t>
+  </si>
+  <si>
     <t>6100801261</t>
   </si>
   <si>
@@ -2944,6 +3184,12 @@
     <t>SUPER 345 VISTA HERMOSA</t>
   </si>
   <si>
+    <t>6105009117</t>
+  </si>
+  <si>
+    <t>Chedraui 0008 Coatzacoalcos I</t>
+  </si>
+  <si>
     <t>6105009251</t>
   </si>
   <si>
@@ -3022,6 +3268,12 @@
     <t>HIPER 46 DELICIAS</t>
   </si>
   <si>
+    <t>6105012247</t>
+  </si>
+  <si>
+    <t>HIPER 56 EJERCITO</t>
+  </si>
+  <si>
     <t>6105012265</t>
   </si>
   <si>
@@ -3058,6 +3310,12 @@
     <t>HIPER 80 COLIMA</t>
   </si>
   <si>
+    <t>6105012513</t>
+  </si>
+  <si>
+    <t>HIPER 81 POZA RICA</t>
+  </si>
+  <si>
     <t>6105012602</t>
   </si>
   <si>
@@ -3214,6 +3472,18 @@
     <t>MI BA 1502 Cuautepec de Hinojosa</t>
   </si>
   <si>
+    <t>4000180038</t>
+  </si>
+  <si>
+    <t>BAE 1873 Victoria</t>
+  </si>
+  <si>
+    <t>4000185836</t>
+  </si>
+  <si>
+    <t>BAE 2833 Santa Barbara</t>
+  </si>
+  <si>
     <t>4000189138</t>
   </si>
   <si>
@@ -3244,12 +3514,24 @@
     <t>BAE 1940 Rancho San Miguel</t>
   </si>
   <si>
+    <t>4000200960</t>
+  </si>
+  <si>
+    <t>MI BA 1540 Acatlan</t>
+  </si>
+  <si>
     <t>4000202964</t>
   </si>
   <si>
     <t>MI BA 1755 Apaxco</t>
   </si>
   <si>
+    <t>4000207502</t>
+  </si>
+  <si>
+    <t>BAE 2724 La Guadalupita</t>
+  </si>
+  <si>
     <t>4000210802</t>
   </si>
   <si>
@@ -3280,6 +3562,12 @@
     <t>MI BA 3568 Berriozabal Sur</t>
   </si>
   <si>
+    <t>4000213031</t>
+  </si>
+  <si>
+    <t>BAE 3328 San Juan Bautista</t>
+  </si>
+  <si>
     <t>4000213644</t>
   </si>
   <si>
@@ -3364,6 +3652,12 @@
     <t>MI BA 3938 Zinapecuaro</t>
   </si>
   <si>
+    <t>4000232757</t>
+  </si>
+  <si>
+    <t>Sams Club 6249 Delicias</t>
+  </si>
+  <si>
     <t>4000233174</t>
   </si>
   <si>
@@ -3376,6 +3670,18 @@
     <t>MI BA 3934 Soledad de Doblado</t>
   </si>
   <si>
+    <t>4000233400</t>
+  </si>
+  <si>
+    <t>BAE 3181 Ciruelos</t>
+  </si>
+  <si>
+    <t>4000233418</t>
+  </si>
+  <si>
+    <t>BAE 3305 Izcalli del Valle</t>
+  </si>
+  <si>
     <t>4000239141</t>
   </si>
   <si>
@@ -3400,22 +3706,34 @@
     <t>MI BA 3712 Tecuala</t>
   </si>
   <si>
+    <t>4000246446</t>
+  </si>
+  <si>
+    <t>BAE 3572 Real del Cid</t>
+  </si>
+  <si>
     <t>4000246494</t>
   </si>
   <si>
     <t>MI BA 1246 Salinas Victoria</t>
   </si>
   <si>
+    <t>4000251135</t>
+  </si>
+  <si>
+    <t>BAE 2576 Avenida Santa Cruz</t>
+  </si>
+  <si>
     <t>4000252155</t>
   </si>
   <si>
     <t>BAE 2984 Los Reyes Chicoloapan</t>
   </si>
   <si>
-    <t>4000254953</t>
-  </si>
-  <si>
-    <t>Sams Club 6297 Morelia Reforma</t>
+    <t>4000252202</t>
+  </si>
+  <si>
+    <t>BAE 3543 Infonavit Izcalli</t>
   </si>
   <si>
     <t>4000256113</t>
@@ -3424,6 +3742,12 @@
     <t>MI BA 2593 San Felipe</t>
   </si>
   <si>
+    <t>4000263953</t>
+  </si>
+  <si>
+    <t>BAE 5423 Las Torres</t>
+  </si>
+  <si>
     <t>4000268037</t>
   </si>
   <si>
@@ -3436,6 +3760,12 @@
     <t>MI BA 2925 Colotlan</t>
   </si>
   <si>
+    <t>4000272400</t>
+  </si>
+  <si>
+    <t>BAE 2563 Paseo de Guadalupe</t>
+  </si>
+  <si>
     <t>4000272591</t>
   </si>
   <si>
@@ -3454,6 +3784,12 @@
     <t>MI BA 2826 Jerecuaro</t>
   </si>
   <si>
+    <t>4000298720</t>
+  </si>
+  <si>
+    <t>BAE 2477 Los Encinos</t>
+  </si>
+  <si>
     <t>4000320417</t>
   </si>
   <si>
@@ -3478,6 +3814,12 @@
     <t>BAE 1229 San Felipe J</t>
   </si>
   <si>
+    <t>4000328773</t>
+  </si>
+  <si>
+    <t>BAE 2834 La Cebada</t>
+  </si>
+  <si>
     <t>4000376579</t>
   </si>
   <si>
@@ -3490,6 +3832,12 @@
     <t>Abarrotes Casa Vargas Tlaxcala</t>
   </si>
   <si>
+    <t>4000558118</t>
+  </si>
+  <si>
+    <t>BAE 5095 Boulevard Jardines</t>
+  </si>
+  <si>
     <t>4000583725</t>
   </si>
   <si>
@@ -3502,6 +3850,12 @@
     <t>Sams Club 6398 Tlaquepaque</t>
   </si>
   <si>
+    <t>6100264948</t>
+  </si>
+  <si>
+    <t>Sams Club 8240 Chihuahua</t>
+  </si>
+  <si>
     <t>6100293596</t>
   </si>
   <si>
@@ -3538,6 +3892,12 @@
     <t>Abarrotes Sahuayo Durango</t>
   </si>
   <si>
+    <t>6100692227</t>
+  </si>
+  <si>
+    <t>Cedis Operadora de Ciudad Juarez</t>
+  </si>
+  <si>
     <t>6100714999</t>
   </si>
   <si>
@@ -3562,6 +3922,18 @@
     <t>Productos de Consumo Z Tlaquepaque</t>
   </si>
   <si>
+    <t>6105006566</t>
+  </si>
+  <si>
+    <t>Sams Club 6207 Cuautitlan Izcalli</t>
+  </si>
+  <si>
+    <t>6105010436</t>
+  </si>
+  <si>
+    <t>Abarrotes Sahuayo Puebla CEDA</t>
+  </si>
+  <si>
     <t>5060000006</t>
   </si>
   <si>
@@ -4033,6 +4405,12 @@
     <t>Tienda IMSS Niño Perdido T62</t>
   </si>
   <si>
+    <t>1000255385</t>
+  </si>
+  <si>
+    <t>Supercito 0891 López Mateos</t>
+  </si>
+  <si>
     <t>1000309801</t>
   </si>
   <si>
@@ -4199,6 +4577,48 @@
   </si>
   <si>
     <t>SC 5352 Gomez Palacio</t>
+  </si>
+  <si>
+    <t>1000356542</t>
+  </si>
+  <si>
+    <t>MERCADO 610 PALENQUE CHIAPAS</t>
+  </si>
+  <si>
+    <t>1000341427</t>
+  </si>
+  <si>
+    <t>Basicos en Alimentos CeDis Cortazar</t>
+  </si>
+  <si>
+    <t>1000234677</t>
+  </si>
+  <si>
+    <t>WM 5185 Villa Verde</t>
+  </si>
+  <si>
+    <t>1000343841</t>
+  </si>
+  <si>
+    <t>Super Chedraui 0283 Ocosingo Chiapa</t>
+  </si>
+  <si>
+    <t>1000344683</t>
+  </si>
+  <si>
+    <t>Supercito 0210 Los HÃ©roes Chalco</t>
+  </si>
+  <si>
+    <t>1000325180</t>
+  </si>
+  <si>
+    <t>WM 5238 Silao Norte</t>
+  </si>
+  <si>
+    <t>1000325019</t>
+  </si>
+  <si>
+    <t>WM 5236 Mision San Francisco</t>
   </si>
 </sst>
 </file>
@@ -5064,8 +5484,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C2E031-01BF-4828-89EC-AE8DE92FC53A}">
-  <dimension ref="A1:D689"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920293C-2CF3-4BB9-953E-44DFB3E4EAF2}">
+  <dimension ref="A1:D759"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5424,7 +5844,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -5480,7 +5900,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -5508,7 +5928,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -5522,7 +5942,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -5550,7 +5970,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -5690,63 +6110,63 @@
         <v>6</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -5774,7 +6194,7 @@
         <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -5844,7 +6264,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -5858,7 +6278,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -5886,7 +6306,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -5900,7 +6320,7 @@
         <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -6026,7 +6446,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -6040,7 +6460,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -6054,7 +6474,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -6068,7 +6488,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -6082,7 +6502,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -6138,7 +6558,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -6152,7 +6572,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -6166,7 +6586,7 @@
         <v>6</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -6194,7 +6614,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -6208,7 +6628,7 @@
         <v>6</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -6236,7 +6656,7 @@
         <v>6</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -6264,7 +6684,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -6278,7 +6698,7 @@
         <v>6</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -6292,7 +6712,7 @@
         <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -6334,7 +6754,7 @@
         <v>6</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -6348,7 +6768,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -6362,7 +6782,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -6390,7 +6810,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -6432,7 +6852,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -6446,7 +6866,7 @@
         <v>6</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -6460,85 +6880,85 @@
         <v>6</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C100" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="C101" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="C103" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="C104" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>6</v>
@@ -6549,16 +6969,16 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -6586,7 +7006,7 @@
         <v>6</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -6656,7 +7076,7 @@
         <v>6</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -6670,7 +7090,7 @@
         <v>6</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -6698,7 +7118,7 @@
         <v>6</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -6712,7 +7132,7 @@
         <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -6726,7 +7146,7 @@
         <v>6</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -6740,15 +7160,15 @@
         <v>6</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>6</v>
@@ -6759,58 +7179,58 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C121" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="C122" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="C123" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>7</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -6824,7 +7244,7 @@
         <v>6</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -6866,7 +7286,7 @@
         <v>6</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -6908,7 +7328,7 @@
         <v>6</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -6922,7 +7342,7 @@
         <v>6</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -6936,7 +7356,7 @@
         <v>6</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -7006,7 +7426,7 @@
         <v>6</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -7020,7 +7440,7 @@
         <v>6</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -7048,7 +7468,7 @@
         <v>6</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -7062,7 +7482,7 @@
         <v>6</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -7076,7 +7496,7 @@
         <v>6</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -7118,7 +7538,7 @@
         <v>6</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -7132,7 +7552,7 @@
         <v>6</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -7160,7 +7580,7 @@
         <v>6</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -7174,7 +7594,7 @@
         <v>6</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -7188,7 +7608,7 @@
         <v>6</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -7202,7 +7622,7 @@
         <v>6</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -7258,7 +7678,7 @@
         <v>6</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -7286,7 +7706,7 @@
         <v>6</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -7314,7 +7734,7 @@
         <v>6</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>250</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -7328,7 +7748,7 @@
         <v>6</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -7342,7 +7762,7 @@
         <v>6</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -7356,7 +7776,7 @@
         <v>6</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -7370,7 +7790,7 @@
         <v>6</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>25</v>
+        <v>260</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -7384,7 +7804,7 @@
         <v>6</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -7398,7 +7818,7 @@
         <v>6</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -7426,7 +7846,7 @@
         <v>6</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -7440,7 +7860,7 @@
         <v>6</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -7454,7 +7874,7 @@
         <v>6</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>7</v>
+        <v>214</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -7468,7 +7888,7 @@
         <v>6</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -7482,7 +7902,7 @@
         <v>6</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
@@ -7496,7 +7916,7 @@
         <v>6</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
@@ -7510,7 +7930,7 @@
         <v>6</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -7608,7 +8028,7 @@
         <v>6</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
@@ -7622,7 +8042,7 @@
         <v>6</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
@@ -7692,7 +8112,7 @@
         <v>6</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
@@ -7706,7 +8126,7 @@
         <v>6</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -7720,7 +8140,7 @@
         <v>6</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -7734,7 +8154,7 @@
         <v>6</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -7762,7 +8182,7 @@
         <v>6</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -7790,7 +8210,7 @@
         <v>6</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
@@ -7818,7 +8238,7 @@
         <v>6</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
@@ -7860,7 +8280,7 @@
         <v>6</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -7888,7 +8308,7 @@
         <v>6</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -7930,7 +8350,7 @@
         <v>6</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -7958,7 +8378,7 @@
         <v>6</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
@@ -7972,7 +8392,7 @@
         <v>6</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
@@ -7986,7 +8406,7 @@
         <v>6</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -8000,7 +8420,7 @@
         <v>6</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -8014,7 +8434,7 @@
         <v>6</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -8056,7 +8476,7 @@
         <v>6</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -8070,7 +8490,7 @@
         <v>6</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
@@ -8084,7 +8504,7 @@
         <v>6</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
@@ -8098,7 +8518,7 @@
         <v>6</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
@@ -8182,7 +8602,7 @@
         <v>6</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -8196,7 +8616,7 @@
         <v>6</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
@@ -8210,7 +8630,7 @@
         <v>6</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -8224,7 +8644,7 @@
         <v>6</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -8238,7 +8658,7 @@
         <v>6</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -8280,7 +8700,7 @@
         <v>6</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
@@ -8294,7 +8714,7 @@
         <v>6</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -8308,7 +8728,7 @@
         <v>6</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -8322,7 +8742,7 @@
         <v>6</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
@@ -8336,7 +8756,7 @@
         <v>6</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
@@ -8420,7 +8840,7 @@
         <v>6</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -8532,7 +8952,7 @@
         <v>6</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -8560,7 +8980,7 @@
         <v>6</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -8574,7 +8994,7 @@
         <v>6</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
@@ -8588,7 +9008,7 @@
         <v>6</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -8602,7 +9022,7 @@
         <v>6</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
@@ -8616,7 +9036,7 @@
         <v>6</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -8630,7 +9050,7 @@
         <v>6</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
@@ -8658,7 +9078,7 @@
         <v>6</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -8672,7 +9092,7 @@
         <v>6</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -8686,7 +9106,7 @@
         <v>6</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
@@ -8728,7 +9148,7 @@
         <v>6</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>215</v>
+        <v>100</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -8742,7 +9162,7 @@
         <v>6</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -8756,7 +9176,7 @@
         <v>6</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -8770,7 +9190,7 @@
         <v>6</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -8784,7 +9204,7 @@
         <v>6</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
@@ -8798,7 +9218,7 @@
         <v>6</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -8812,7 +9232,7 @@
         <v>6</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
@@ -8826,7 +9246,7 @@
         <v>6</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
@@ -8840,7 +9260,7 @@
         <v>6</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -8868,7 +9288,7 @@
         <v>6</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -8882,7 +9302,7 @@
         <v>6</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
@@ -8896,7 +9316,7 @@
         <v>6</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
@@ -8924,7 +9344,7 @@
         <v>6</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
@@ -8952,7 +9372,7 @@
         <v>6</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -8966,7 +9386,7 @@
         <v>6</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
@@ -9022,7 +9442,7 @@
         <v>6</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -9036,7 +9456,7 @@
         <v>6</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -9050,7 +9470,7 @@
         <v>6</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
@@ -9064,7 +9484,7 @@
         <v>6</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
@@ -9078,7 +9498,7 @@
         <v>6</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
@@ -9092,7 +9512,7 @@
         <v>6</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -9106,7 +9526,7 @@
         <v>6</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -9120,7 +9540,7 @@
         <v>6</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
@@ -9134,7 +9554,7 @@
         <v>6</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -9148,7 +9568,7 @@
         <v>6</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -9162,7 +9582,7 @@
         <v>6</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -9176,7 +9596,7 @@
         <v>6</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
@@ -9190,7 +9610,7 @@
         <v>6</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -9232,7 +9652,7 @@
         <v>6</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -9246,7 +9666,7 @@
         <v>6</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
@@ -9274,7 +9694,7 @@
         <v>6</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -9456,7 +9876,7 @@
         <v>6</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
@@ -9554,7 +9974,7 @@
         <v>6</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
@@ -9652,7 +10072,7 @@
         <v>6</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
@@ -9666,7 +10086,7 @@
         <v>6</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
@@ -9680,7 +10100,7 @@
         <v>6</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
@@ -9694,7 +10114,7 @@
         <v>6</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
@@ -9708,7 +10128,7 @@
         <v>6</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
@@ -9722,7 +10142,7 @@
         <v>6</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
@@ -9736,7 +10156,7 @@
         <v>6</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
@@ -9750,7 +10170,7 @@
         <v>6</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
@@ -9764,7 +10184,7 @@
         <v>6</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
@@ -9778,7 +10198,7 @@
         <v>6</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
@@ -9792,7 +10212,7 @@
         <v>6</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
@@ -9806,7 +10226,7 @@
         <v>6</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
@@ -9820,7 +10240,7 @@
         <v>6</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
@@ -9834,7 +10254,7 @@
         <v>6</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
@@ -9904,7 +10324,7 @@
         <v>6</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
@@ -9918,7 +10338,7 @@
         <v>6</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
@@ -9932,7 +10352,7 @@
         <v>6</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
@@ -9960,7 +10380,7 @@
         <v>6</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
@@ -9974,7 +10394,7 @@
         <v>6</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
@@ -9988,7 +10408,7 @@
         <v>6</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
@@ -10002,7 +10422,7 @@
         <v>6</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
@@ -10016,7 +10436,7 @@
         <v>6</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
@@ -10030,7 +10450,7 @@
         <v>6</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
@@ -10044,7 +10464,7 @@
         <v>6</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>215</v>
+        <v>25</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
@@ -10058,7 +10478,7 @@
         <v>6</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
@@ -10100,7 +10520,7 @@
         <v>6</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
@@ -10114,7 +10534,7 @@
         <v>6</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
@@ -10128,7 +10548,7 @@
         <v>6</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
@@ -10142,7 +10562,7 @@
         <v>6</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
@@ -10156,7 +10576,7 @@
         <v>6</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
@@ -10170,7 +10590,7 @@
         <v>6</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
@@ -10184,7 +10604,7 @@
         <v>6</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
@@ -10198,7 +10618,7 @@
         <v>6</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
@@ -10212,7 +10632,7 @@
         <v>6</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
@@ -10282,7 +10702,7 @@
         <v>6</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
@@ -10324,7 +10744,7 @@
         <v>6</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
@@ -10338,7 +10758,7 @@
         <v>6</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
@@ -10352,7 +10772,7 @@
         <v>6</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
@@ -10366,7 +10786,7 @@
         <v>6</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
@@ -10380,7 +10800,7 @@
         <v>6</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
@@ -10394,7 +10814,7 @@
         <v>6</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
@@ -10422,7 +10842,7 @@
         <v>6</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
@@ -10436,7 +10856,7 @@
         <v>6</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
@@ -10450,7 +10870,7 @@
         <v>6</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
@@ -10464,7 +10884,7 @@
         <v>6</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
@@ -10478,7 +10898,7 @@
         <v>6</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
@@ -10492,7 +10912,7 @@
         <v>6</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
@@ -10506,7 +10926,7 @@
         <v>6</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
@@ -10520,7 +10940,7 @@
         <v>6</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>7</v>
+        <v>214</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
@@ -10548,7 +10968,7 @@
         <v>6</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
@@ -10562,7 +10982,7 @@
         <v>6</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
@@ -10576,7 +10996,7 @@
         <v>6</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
@@ -10590,7 +11010,7 @@
         <v>6</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
@@ -10604,7 +11024,7 @@
         <v>6</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
@@ -10618,7 +11038,7 @@
         <v>6</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
@@ -10646,7 +11066,7 @@
         <v>6</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
@@ -10660,7 +11080,7 @@
         <v>6</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
@@ -10674,7 +11094,7 @@
         <v>6</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
@@ -10688,7 +11108,7 @@
         <v>6</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
@@ -10702,7 +11122,7 @@
         <v>6</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
@@ -10716,7 +11136,7 @@
         <v>6</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
@@ -10730,7 +11150,7 @@
         <v>6</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
@@ -10744,7 +11164,7 @@
         <v>6</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
@@ -10758,7 +11178,7 @@
         <v>6</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
@@ -10772,7 +11192,7 @@
         <v>6</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
@@ -10814,7 +11234,7 @@
         <v>6</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.35">
@@ -10828,7 +11248,7 @@
         <v>6</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
@@ -10856,7 +11276,7 @@
         <v>6</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.35">
@@ -10870,7 +11290,7 @@
         <v>6</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.35">
@@ -10884,7 +11304,7 @@
         <v>6</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
@@ -10898,7 +11318,7 @@
         <v>6</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.35">
@@ -10912,7 +11332,7 @@
         <v>6</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.35">
@@ -10926,7 +11346,7 @@
         <v>6</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
@@ -10940,7 +11360,7 @@
         <v>6</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.35">
@@ -10954,7 +11374,7 @@
         <v>6</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
@@ -10968,7 +11388,7 @@
         <v>6</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
@@ -10982,7 +11402,7 @@
         <v>6</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.35">
@@ -10996,7 +11416,7 @@
         <v>6</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.35">
@@ -11010,7 +11430,7 @@
         <v>6</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
@@ -11024,7 +11444,7 @@
         <v>6</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.35">
@@ -11038,7 +11458,7 @@
         <v>6</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.35">
@@ -11066,7 +11486,7 @@
         <v>6</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>17</v>
+        <v>214</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.35">
@@ -11080,7 +11500,7 @@
         <v>6</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.35">
@@ -11094,7 +11514,7 @@
         <v>6</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
@@ -11108,7 +11528,7 @@
         <v>6</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.35">
@@ -11122,7 +11542,7 @@
         <v>6</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.35">
@@ -11136,7 +11556,7 @@
         <v>6</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
@@ -11150,7 +11570,7 @@
         <v>6</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.35">
@@ -11164,7 +11584,7 @@
         <v>6</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.35">
@@ -11178,7 +11598,7 @@
         <v>6</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
@@ -11192,7 +11612,7 @@
         <v>6</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.35">
@@ -11206,7 +11626,7 @@
         <v>6</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.35">
@@ -11220,7 +11640,7 @@
         <v>6</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
@@ -11234,7 +11654,7 @@
         <v>6</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.35">
@@ -11248,7 +11668,7 @@
         <v>6</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.35">
@@ -11262,7 +11682,7 @@
         <v>6</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>250</v>
+        <v>25</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
@@ -11318,7 +11738,7 @@
         <v>6</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.35">
@@ -11332,7 +11752,7 @@
         <v>6</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.35">
@@ -11346,7 +11766,7 @@
         <v>6</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
@@ -11374,7 +11794,7 @@
         <v>6</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.35">
@@ -11402,7 +11822,7 @@
         <v>6</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.35">
@@ -11430,7 +11850,7 @@
         <v>6</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
@@ -11458,7 +11878,7 @@
         <v>6</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.35">
@@ -11472,7 +11892,7 @@
         <v>6</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
@@ -11486,7 +11906,7 @@
         <v>6</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.35">
@@ -11500,7 +11920,7 @@
         <v>6</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.35">
@@ -11514,7 +11934,7 @@
         <v>6</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
@@ -11528,7 +11948,7 @@
         <v>6</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.35">
@@ -11542,7 +11962,7 @@
         <v>6</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.35">
@@ -11570,7 +11990,7 @@
         <v>6</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.35">
@@ -11584,7 +12004,7 @@
         <v>6</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.35">
@@ -11598,7 +12018,7 @@
         <v>6</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
@@ -11612,7 +12032,7 @@
         <v>6</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.35">
@@ -11640,7 +12060,7 @@
         <v>6</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
@@ -11654,7 +12074,7 @@
         <v>6</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.35">
@@ -11668,7 +12088,7 @@
         <v>6</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.35">
@@ -11682,7 +12102,7 @@
         <v>6</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
@@ -11696,7 +12116,7 @@
         <v>6</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.35">
@@ -11710,7 +12130,7 @@
         <v>6</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.35">
@@ -11724,7 +12144,7 @@
         <v>6</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>7</v>
+        <v>214</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
@@ -11738,7 +12158,7 @@
         <v>6</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.35">
@@ -11766,7 +12186,7 @@
         <v>6</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>7</v>
+        <v>260</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
@@ -11780,7 +12200,7 @@
         <v>6</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.35">
@@ -11794,7 +12214,7 @@
         <v>6</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.35">
@@ -11808,7 +12228,7 @@
         <v>6</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
@@ -11822,7 +12242,7 @@
         <v>6</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.35">
@@ -11836,7 +12256,7 @@
         <v>6</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.35">
@@ -11850,7 +12270,7 @@
         <v>6</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
@@ -11864,7 +12284,7 @@
         <v>6</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.35">
@@ -11878,7 +12298,7 @@
         <v>6</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.35">
@@ -11892,7 +12312,7 @@
         <v>6</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
@@ -11906,7 +12326,7 @@
         <v>6</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.35">
@@ -11920,7 +12340,7 @@
         <v>6</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.35">
@@ -11934,7 +12354,7 @@
         <v>6</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
@@ -11948,7 +12368,7 @@
         <v>6</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.35">
@@ -11962,7 +12382,7 @@
         <v>6</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.35">
@@ -11976,7 +12396,7 @@
         <v>6</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
@@ -11990,7 +12410,7 @@
         <v>6</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.35">
@@ -12004,7 +12424,7 @@
         <v>6</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.35">
@@ -12018,7 +12438,7 @@
         <v>6</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
@@ -12032,7 +12452,7 @@
         <v>6</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.35">
@@ -12046,7 +12466,7 @@
         <v>6</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.35">
@@ -12060,7 +12480,7 @@
         <v>6</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
@@ -12074,7 +12494,7 @@
         <v>6</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>7</v>
+        <v>214</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.35">
@@ -12088,7 +12508,7 @@
         <v>6</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.35">
@@ -12102,7 +12522,7 @@
         <v>6</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
@@ -12116,7 +12536,7 @@
         <v>6</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.35">
@@ -12130,7 +12550,7 @@
         <v>6</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.35">
@@ -12144,7 +12564,7 @@
         <v>6</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
@@ -12158,7 +12578,7 @@
         <v>6</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.35">
@@ -12172,7 +12592,7 @@
         <v>6</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.35">
@@ -12186,7 +12606,7 @@
         <v>6</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
@@ -12200,7 +12620,7 @@
         <v>6</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.35">
@@ -12214,7 +12634,7 @@
         <v>6</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.35">
@@ -12228,7 +12648,7 @@
         <v>6</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
@@ -12242,7 +12662,7 @@
         <v>6</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.35">
@@ -12256,7 +12676,7 @@
         <v>6</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.35">
@@ -12270,7 +12690,7 @@
         <v>6</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
@@ -12284,7 +12704,7 @@
         <v>6</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.35">
@@ -12298,7 +12718,7 @@
         <v>6</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.35">
@@ -12312,7 +12732,7 @@
         <v>6</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
@@ -12326,7 +12746,7 @@
         <v>6</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.35">
@@ -12340,7 +12760,7 @@
         <v>6</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.35">
@@ -12354,7 +12774,7 @@
         <v>6</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
@@ -12368,7 +12788,7 @@
         <v>6</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.35">
@@ -12396,7 +12816,7 @@
         <v>6</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
@@ -12410,7 +12830,7 @@
         <v>6</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.35">
@@ -12424,7 +12844,7 @@
         <v>6</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.35">
@@ -12438,7 +12858,7 @@
         <v>6</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
@@ -12452,7 +12872,7 @@
         <v>6</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.35">
@@ -12466,7 +12886,7 @@
         <v>6</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.35">
@@ -12480,7 +12900,7 @@
         <v>6</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
@@ -12494,7 +12914,7 @@
         <v>6</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.35">
@@ -12508,7 +12928,7 @@
         <v>6</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.35">
@@ -12522,7 +12942,7 @@
         <v>6</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
@@ -12536,7 +12956,7 @@
         <v>6</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.35">
@@ -12550,7 +12970,7 @@
         <v>6</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.35">
@@ -12564,7 +12984,7 @@
         <v>6</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
@@ -12578,7 +12998,7 @@
         <v>6</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.35">
@@ -12592,7 +13012,7 @@
         <v>6</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.35">
@@ -12606,7 +13026,7 @@
         <v>6</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
@@ -12620,7 +13040,7 @@
         <v>6</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.35">
@@ -12634,7 +13054,7 @@
         <v>6</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.35">
@@ -12648,7 +13068,7 @@
         <v>6</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
@@ -12662,7 +13082,7 @@
         <v>6</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.35">
@@ -12676,7 +13096,7 @@
         <v>6</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.35">
@@ -12690,7 +13110,7 @@
         <v>6</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
@@ -12704,7 +13124,7 @@
         <v>6</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.35">
@@ -12718,7 +13138,7 @@
         <v>6</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.35">
@@ -12732,7 +13152,7 @@
         <v>6</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
@@ -12746,7 +13166,7 @@
         <v>6</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.35">
@@ -12760,7 +13180,7 @@
         <v>6</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.35">
@@ -12774,7 +13194,7 @@
         <v>6</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
@@ -12788,7 +13208,7 @@
         <v>6</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.35">
@@ -12802,7 +13222,7 @@
         <v>6</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.35">
@@ -12984,7 +13404,7 @@
         <v>6</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
@@ -12998,7 +13418,7 @@
         <v>6</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.35">
@@ -13012,7 +13432,7 @@
         <v>6</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.35">
@@ -13026,7 +13446,7 @@
         <v>6</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
@@ -13054,7 +13474,7 @@
         <v>6</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.35">
@@ -13068,7 +13488,7 @@
         <v>6</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
@@ -13082,7 +13502,7 @@
         <v>6</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.35">
@@ -13110,7 +13530,7 @@
         <v>6</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
@@ -13180,7 +13600,7 @@
         <v>6</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.35">
@@ -13194,7 +13614,7 @@
         <v>6</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
@@ -13208,7 +13628,7 @@
         <v>6</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
@@ -13222,7 +13642,7 @@
         <v>6</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.35">
@@ -13236,7 +13656,7 @@
         <v>6</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.35">
@@ -13250,43 +13670,43 @@
         <v>6</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>1181</v>
+        <v>25</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A585" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B585" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="B585" s="2" t="s">
-        <v>1183</v>
-      </c>
       <c r="C585" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>1181</v>
+        <v>25</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A586" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B586" s="2" t="s">
         <v>1184</v>
       </c>
-      <c r="B586" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="C586" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>1181</v>
+        <v>20</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A587" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B587" s="2" t="s">
         <v>1186</v>
-      </c>
-      <c r="B587" s="2" t="s">
-        <v>1187</v>
       </c>
       <c r="C587" s="2" t="s">
         <v>6</v>
@@ -13297,122 +13717,122 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A588" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B588" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="B588" s="2" t="s">
-        <v>1189</v>
-      </c>
       <c r="C588" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A589" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B589" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="B589" s="2" t="s">
-        <v>1191</v>
-      </c>
       <c r="C589" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A590" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B590" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="B590" s="2" t="s">
-        <v>1193</v>
-      </c>
       <c r="C590" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A591" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B591" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="B591" s="2" t="s">
-        <v>1195</v>
-      </c>
       <c r="C591" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A592" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B592" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="B592" s="2" t="s">
-        <v>1197</v>
-      </c>
       <c r="C592" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A593" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B593" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="B593" s="2" t="s">
-        <v>1199</v>
-      </c>
       <c r="C593" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A594" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B594" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="B594" s="2" t="s">
-        <v>1201</v>
-      </c>
       <c r="C594" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A595" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B595" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="B595" s="2" t="s">
-        <v>1203</v>
-      </c>
       <c r="C595" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A596" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B596" s="2" t="s">
         <v>1204</v>
-      </c>
-      <c r="B596" s="2" t="s">
-        <v>1205</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>6</v>
@@ -13423,170 +13843,170 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A597" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B597" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="B597" s="2" t="s">
-        <v>1207</v>
-      </c>
       <c r="C597" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A598" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B598" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="B598" s="2" t="s">
-        <v>1209</v>
-      </c>
       <c r="C598" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A599" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B599" s="2" t="s">
         <v>1210</v>
       </c>
-      <c r="B599" s="2" t="s">
-        <v>1211</v>
-      </c>
       <c r="C599" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A600" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B600" s="2" t="s">
         <v>1212</v>
       </c>
-      <c r="B600" s="2" t="s">
-        <v>1213</v>
-      </c>
       <c r="C600" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A601" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B601" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="B601" s="2" t="s">
-        <v>1215</v>
-      </c>
       <c r="C601" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>1216</v>
+        <v>25</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A602" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>1216</v>
+        <v>25</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A603" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>1216</v>
+        <v>25</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A604" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>1216</v>
+        <v>25</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A605" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>730</v>
+        <v>1222</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>1216</v>
+        <v>25</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A606" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B606" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="B606" s="2" t="s">
-        <v>1225</v>
-      </c>
       <c r="C606" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>1216</v>
+        <v>25</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A607" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B607" s="2" t="s">
         <v>1226</v>
       </c>
-      <c r="B607" s="2" t="s">
-        <v>1227</v>
-      </c>
       <c r="C607" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>1216</v>
+        <v>25</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A608" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B608" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="B608" s="2" t="s">
-        <v>802</v>
-      </c>
       <c r="C608" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>1216</v>
+        <v>25</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.35">
@@ -13600,10 +14020,10 @@
         <v>6</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="610" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A610" s="2" t="s">
         <v>1231</v>
       </c>
@@ -13614,7 +14034,7 @@
         <v>6</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>1216</v>
+        <v>25</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.35">
@@ -13628,497 +14048,497 @@
         <v>6</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>1235</v>
+        <v>25</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A612" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B612" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="B612" s="2" t="s">
-        <v>1237</v>
-      </c>
       <c r="C612" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>1216</v>
+        <v>25</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A613" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B613" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="B613" s="2" t="s">
-        <v>1239</v>
-      </c>
       <c r="C613" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>1216</v>
+        <v>25</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A614" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B614" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B614" s="2" t="s">
-        <v>1241</v>
-      </c>
       <c r="C614" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>1235</v>
+        <v>25</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A615" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B615" s="2" t="s">
         <v>1242</v>
       </c>
-      <c r="B615" s="2" t="s">
-        <v>1243</v>
-      </c>
       <c r="C615" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>1235</v>
+        <v>25</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A616" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B616" s="2" t="s">
         <v>1244</v>
       </c>
-      <c r="B616" s="2" t="s">
-        <v>1245</v>
-      </c>
       <c r="C616" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>1216</v>
+        <v>25</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A617" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B617" s="2" t="s">
         <v>1246</v>
       </c>
-      <c r="B617" s="2" t="s">
-        <v>1247</v>
-      </c>
       <c r="C617" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>1216</v>
+        <v>25</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A618" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B618" s="2" t="s">
         <v>1248</v>
       </c>
-      <c r="B618" s="2" t="s">
-        <v>1249</v>
-      </c>
       <c r="C618" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>1216</v>
+        <v>25</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A619" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B619" s="2" t="s">
         <v>1250</v>
       </c>
-      <c r="B619" s="2" t="s">
-        <v>1251</v>
-      </c>
       <c r="C619" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>1235</v>
+        <v>25</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A620" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B620" s="2" t="s">
         <v>1252</v>
       </c>
-      <c r="B620" s="2" t="s">
-        <v>1253</v>
-      </c>
       <c r="C620" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D620" s="2" t="s">
-        <v>1216</v>
+        <v>25</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A621" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B621" s="2" t="s">
         <v>1254</v>
       </c>
-      <c r="B621" s="2" t="s">
-        <v>1255</v>
-      </c>
       <c r="C621" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>1216</v>
+        <v>25</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A622" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B622" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="B622" s="2" t="s">
-        <v>1257</v>
-      </c>
       <c r="C622" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>1216</v>
+        <v>14</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A623" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B623" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="B623" s="2" t="s">
-        <v>1259</v>
-      </c>
       <c r="C623" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>1216</v>
+        <v>14</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A624" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B624" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="B624" s="2" t="s">
+      <c r="C624" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D624" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A625" s="2" t="s">
         <v>1261</v>
       </c>
-      <c r="C624" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D624" s="2" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="625" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A625" s="2" t="s">
+      <c r="B625" s="2" t="s">
         <v>1262</v>
       </c>
-      <c r="B625" s="2" t="s">
-        <v>1263</v>
-      </c>
       <c r="C625" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>1235</v>
+        <v>25</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A626" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B626" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="B626" s="2" t="s">
-        <v>1265</v>
-      </c>
       <c r="C626" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>1216</v>
+        <v>25</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A627" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B627" s="2" t="s">
         <v>1266</v>
       </c>
-      <c r="B627" s="2" t="s">
-        <v>1267</v>
-      </c>
       <c r="C627" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>1235</v>
+        <v>20</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A628" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B628" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="B628" s="2" t="s">
-        <v>1269</v>
-      </c>
       <c r="C628" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>1235</v>
+        <v>14</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A629" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B629" s="2" t="s">
         <v>1270</v>
       </c>
-      <c r="B629" s="2" t="s">
-        <v>1271</v>
-      </c>
       <c r="C629" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>1235</v>
+        <v>25</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A630" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B630" s="2" t="s">
         <v>1272</v>
       </c>
-      <c r="B630" s="2" t="s">
-        <v>1273</v>
-      </c>
       <c r="C630" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>1235</v>
+        <v>100</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A631" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B631" s="2" t="s">
         <v>1274</v>
       </c>
-      <c r="B631" s="2" t="s">
-        <v>1275</v>
-      </c>
       <c r="C631" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>1235</v>
+        <v>25</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A632" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B632" s="2" t="s">
         <v>1276</v>
       </c>
-      <c r="B632" s="2" t="s">
-        <v>1277</v>
-      </c>
       <c r="C632" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>1235</v>
+        <v>25</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A633" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B633" s="2" t="s">
         <v>1278</v>
       </c>
-      <c r="B633" s="2" t="s">
-        <v>1279</v>
-      </c>
       <c r="C633" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A634" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B634" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="B634" s="2" t="s">
-        <v>1281</v>
-      </c>
       <c r="C634" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>1181</v>
+        <v>25</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A635" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B635" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="B635" s="2" t="s">
-        <v>1283</v>
-      </c>
       <c r="C635" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D635" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A636" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B636" s="2" t="s">
         <v>1284</v>
       </c>
-      <c r="B636" s="2" t="s">
-        <v>1285</v>
-      </c>
       <c r="C636" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D636" s="2" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A637" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B637" s="2" t="s">
         <v>1286</v>
       </c>
-      <c r="B637" s="2" t="s">
-        <v>1287</v>
-      </c>
       <c r="C637" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A638" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B638" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="B638" s="2" t="s">
-        <v>1289</v>
-      </c>
       <c r="C638" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A639" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B639" s="2" t="s">
         <v>1290</v>
       </c>
-      <c r="B639" s="2" t="s">
-        <v>1291</v>
-      </c>
       <c r="C639" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A640" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B640" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="B640" s="2" t="s">
-        <v>1293</v>
-      </c>
       <c r="C640" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A641" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B641" s="2" t="s">
         <v>1294</v>
       </c>
-      <c r="B641" s="2" t="s">
-        <v>1295</v>
-      </c>
       <c r="C641" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>1216</v>
+        <v>100</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A642" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B642" s="2" t="s">
         <v>1296</v>
       </c>
-      <c r="B642" s="2" t="s">
-        <v>1297</v>
-      </c>
       <c r="C642" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A643" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B643" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="B643" s="2" t="s">
-        <v>1299</v>
-      </c>
       <c r="C643" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A644" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B644" s="2" t="s">
         <v>1300</v>
       </c>
-      <c r="B644" s="2" t="s">
-        <v>1301</v>
-      </c>
       <c r="C644" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A645" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B645" s="2" t="s">
         <v>1302</v>
       </c>
-      <c r="B645" s="2" t="s">
-        <v>1303</v>
-      </c>
       <c r="C645" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A646" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B646" s="2" t="s">
         <v>1304</v>
       </c>
-      <c r="B646" s="2" t="s">
+      <c r="C646" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D646" s="2" t="s">
         <v>1305</v>
-      </c>
-      <c r="C646" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D646" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.35">
@@ -14132,7 +14552,7 @@
         <v>6</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>20</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.35">
@@ -14146,7 +14566,7 @@
         <v>6</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>96</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.35">
@@ -14160,7 +14580,7 @@
         <v>6</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.35">
@@ -14174,7 +14594,7 @@
         <v>6</v>
       </c>
       <c r="D650" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.35">
@@ -14188,7 +14608,7 @@
         <v>6</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.35">
@@ -14202,7 +14622,7 @@
         <v>6</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.35">
@@ -14216,7 +14636,7 @@
         <v>6</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.35">
@@ -14258,7 +14678,7 @@
         <v>6</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.35">
@@ -14272,7 +14692,7 @@
         <v>6</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.35">
@@ -14286,7 +14706,7 @@
         <v>6</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.35">
@@ -14300,7 +14720,7 @@
         <v>6</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.35">
@@ -14314,7 +14734,7 @@
         <v>6</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.35">
@@ -14328,7 +14748,7 @@
         <v>6</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.35">
@@ -14342,7 +14762,7 @@
         <v>6</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.35">
@@ -14356,63 +14776,63 @@
         <v>6</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>25</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A664" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C664" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D664" s="2" t="s">
         <v>1340</v>
-      </c>
-      <c r="B664" s="2" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C664" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D664" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A665" s="2" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>14</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A666" s="2" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>14</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A667" s="2" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1347</v>
+        <v>784</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>1216</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.35">
@@ -14426,7 +14846,7 @@
         <v>6</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>1216</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.35">
@@ -14440,7 +14860,7 @@
         <v>6</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>20</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.35">
@@ -14448,55 +14868,55 @@
         <v>1352</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1353</v>
+        <v>868</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>20</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A671" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B671" s="2" t="s">
         <v>1354</v>
       </c>
-      <c r="B671" s="2" t="s">
+      <c r="C671" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D671" s="2" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A672" s="2" t="s">
         <v>1355</v>
       </c>
-      <c r="C671" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D671" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A672" s="2" t="s">
+      <c r="B672" s="2" t="s">
         <v>1356</v>
       </c>
-      <c r="B672" s="2" t="s">
-        <v>1357</v>
-      </c>
       <c r="C672" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>7</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A673" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B673" s="2" t="s">
         <v>1358</v>
       </c>
-      <c r="B673" s="2" t="s">
+      <c r="C673" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D673" s="2" t="s">
         <v>1359</v>
-      </c>
-      <c r="C673" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D673" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.35">
@@ -14510,7 +14930,7 @@
         <v>6</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>1235</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.35">
@@ -14524,7 +14944,7 @@
         <v>6</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>25</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.35">
@@ -14538,7 +14958,7 @@
         <v>6</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>25</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.35">
@@ -14552,7 +14972,7 @@
         <v>6</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>25</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.35">
@@ -14566,7 +14986,7 @@
         <v>6</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>25</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.35">
@@ -14580,7 +15000,7 @@
         <v>6</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>25</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.35">
@@ -14594,7 +15014,7 @@
         <v>6</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>25</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.35">
@@ -14608,7 +15028,7 @@
         <v>6</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>14</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.35">
@@ -14622,7 +15042,7 @@
         <v>6</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>25</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.35">
@@ -14636,7 +15056,7 @@
         <v>6</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>25</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.35">
@@ -14650,7 +15070,7 @@
         <v>6</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>25</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.35">
@@ -14664,7 +15084,7 @@
         <v>6</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>25</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.35">
@@ -14678,10 +15098,10 @@
         <v>6</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A687" s="2" t="s">
         <v>1386</v>
       </c>
@@ -14692,7 +15112,7 @@
         <v>6</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>14</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.35">
@@ -14706,7 +15126,7 @@
         <v>6</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>25</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.35">
@@ -14720,11 +15140,991 @@
         <v>6</v>
       </c>
       <c r="D689" s="2" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A690" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D690" s="2" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A691" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C691" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D691" s="2" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A692" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C692" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D692" s="2" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A693" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C693" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D693" s="2" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A694" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C694" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D694" s="2" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A695" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C695" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D695" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A696" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C696" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D696" s="2" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A697" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C697" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D697" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A698" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C698" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D698" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A699" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C699" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D699" s="2" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A700" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C700" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D700" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A701" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C701" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D701" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A702" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C702" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D702" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A703" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C703" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D703" s="2" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A704" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D704" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A705" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C705" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D705" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A706" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C706" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D706" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A707" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C707" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D707" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A708" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C708" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D708" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A709" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C709" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D709" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A710" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C710" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D710" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A711" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C711" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D711" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A712" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C712" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D712" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A713" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C713" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D713" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A714" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C714" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D714" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A715" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C715" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D715" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A716" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C716" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D716" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A717" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C717" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D717" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A718" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C718" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D718" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A719" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C719" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D719" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A720" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C720" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D720" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A721" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C721" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D721" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A722" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D722" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A723" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D723" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A724" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C724" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D724" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A725" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C725" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D725" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A726" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C726" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D726" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A727" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C727" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D727" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A728" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C728" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D728" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A729" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C729" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D729" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A730" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C730" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D730" s="2" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A731" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D731" s="2" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A732" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C732" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D732" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A733" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C733" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D733" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A734" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C734" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D734" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A735" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C735" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D735" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A736" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B736" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C736" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D736" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A737" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C737" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D737" s="2" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A738" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C738" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D738" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A739" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C739" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D739" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A740" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D740" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A741" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C741" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D741" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A742" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C742" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D742" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A743" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D743" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A744" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C744" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D744" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A745" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C745" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D745" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A746" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D746" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A747" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D747" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A748" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D748" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A749" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B749" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D749" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A750" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D750" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A751" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B751" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D751" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A752" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D752" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A753" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D753" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A754" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D754" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A755" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D755" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A756" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D756" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A757" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D757" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A758" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D758" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A759" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D759" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D689" xr:uid="{3C39749B-112A-41B7-9CC8-03F69E7B9C76}"/>
+  <autoFilter ref="A1:D759" xr:uid="{B14E47EF-08FD-48CC-BA02-F7E4E7CC06EA}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Incontactables.xlsx
+++ b/Incontactables.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D02795DF-04C1-4E9B-A3F2-B16C0A7CE040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CB8E7A0-DC18-4962-B0B0-B02780FC555D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{1B6AD9FD-13E6-454A-9826-14520F4DE517}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="31560" windowHeight="18810" xr2:uid="{F3F0BE0B-C0A2-4733-B1A2-C9BF4135D52D}"/>
   </bookViews>
   <sheets>
-    <sheet name="report1754951208249" sheetId="1" r:id="rId1"/>
+    <sheet name="report1756479939638" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">report1754951208249!$A$1:$D$759</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">report1756479939638!$A$1:$D$780</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="1532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="1574">
   <si>
     <t>Delv Ship-To Party</t>
   </si>
@@ -88,21 +88,33 @@
     <t>Chedraui</t>
   </si>
   <si>
+    <t>1000035842</t>
+  </si>
+  <si>
+    <t>Abarrotes San Juan Hehe CeDis</t>
+  </si>
+  <si>
     <t>1000035849</t>
   </si>
   <si>
     <t>Abarrotes Casa Vargas Saucillo II</t>
   </si>
   <si>
+    <t>3000034186</t>
+  </si>
+  <si>
+    <t>BA 3897 La Virgen</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
     <t>3000034378</t>
   </si>
   <si>
     <t>WM 3894 Villahermosa I</t>
   </si>
   <si>
-    <t>Walmart</t>
-  </si>
-  <si>
     <t>3000034379</t>
   </si>
   <si>
@@ -367,6 +379,12 @@
     <t>SUPER 373 LA OCHO</t>
   </si>
   <si>
+    <t>4000053198</t>
+  </si>
+  <si>
+    <t>SUPER 375 FLORIDO</t>
+  </si>
+  <si>
     <t>4000053200</t>
   </si>
   <si>
@@ -427,6 +445,12 @@
     <t>HIPER 113 CIMATARIO</t>
   </si>
   <si>
+    <t>4000059372</t>
+  </si>
+  <si>
+    <t>HIPER 126 CANCUN</t>
+  </si>
+  <si>
     <t>4000060256</t>
   </si>
   <si>
@@ -451,6 +475,12 @@
     <t>MEGA 863 CUERNAVACA CENTRO</t>
   </si>
   <si>
+    <t>4000061025</t>
+  </si>
+  <si>
+    <t>MEGA 917 GUANAJUATO</t>
+  </si>
+  <si>
     <t>4000061039</t>
   </si>
   <si>
@@ -682,6 +712,12 @@
     <t>HIPER 146 SAN JOSE DEL CABO</t>
   </si>
   <si>
+    <t>4000093331</t>
+  </si>
+  <si>
+    <t>MERCADO 148 ZAMORA</t>
+  </si>
+  <si>
     <t>4000094989</t>
   </si>
   <si>
@@ -844,6 +880,12 @@
     <t>MERCADO 186 PARAISO</t>
   </si>
   <si>
+    <t>4000118852</t>
+  </si>
+  <si>
+    <t>MERCADO 182 RAMOS ARIZPE</t>
+  </si>
+  <si>
     <t>4000119885</t>
   </si>
   <si>
@@ -928,6 +970,12 @@
     <t>BA 3001 Avenida 11 Cordoba</t>
   </si>
   <si>
+    <t>4000125489</t>
+  </si>
+  <si>
+    <t>BA 5730 Chicoloapan</t>
+  </si>
+  <si>
     <t>4000131895</t>
   </si>
   <si>
@@ -1066,6 +1114,12 @@
     <t>HIPER 695 RAFAEL BUELNA</t>
   </si>
   <si>
+    <t>4000158315</t>
+  </si>
+  <si>
+    <t>MEGA 987 REFUGIO</t>
+  </si>
+  <si>
     <t>4000159800</t>
   </si>
   <si>
@@ -1426,6 +1480,12 @@
     <t>WM 2218 Tuxpan</t>
   </si>
   <si>
+    <t>4000196955</t>
+  </si>
+  <si>
+    <t>MI BA 2877 Calkini</t>
+  </si>
+  <si>
     <t>4000197993</t>
   </si>
   <si>
@@ -1492,6 +1552,12 @@
     <t>BAE 1604 Ferrocarril de Cintura</t>
   </si>
   <si>
+    <t>4000200956</t>
+  </si>
+  <si>
+    <t>MI BA 1864 5 de Mayo</t>
+  </si>
+  <si>
     <t>4000202049</t>
   </si>
   <si>
@@ -1600,6 +1666,12 @@
     <t>BA 4076 Aeropuerto Zapata</t>
   </si>
   <si>
+    <t>4000212830</t>
+  </si>
+  <si>
+    <t>BA 3400 Delicias</t>
+  </si>
+  <si>
     <t>4000213649</t>
   </si>
   <si>
@@ -1636,6 +1708,12 @@
     <t>MI BA 2929 Paso del Macho</t>
   </si>
   <si>
+    <t>4000224252</t>
+  </si>
+  <si>
+    <t>MI BA 2924 Miguel Aleman La Doce</t>
+  </si>
+  <si>
     <t>4000224263</t>
   </si>
   <si>
@@ -1732,6 +1810,12 @@
     <t>BA 5659 La Ladrillera</t>
   </si>
   <si>
+    <t>4000233176</t>
+  </si>
+  <si>
+    <t>BA 1830 Arbolada Sauces</t>
+  </si>
+  <si>
     <t>4000233201</t>
   </si>
   <si>
@@ -1816,12 +1900,6 @@
     <t>SUPER 544 JARDINES DEL SUR</t>
   </si>
   <si>
-    <t>4000233506</t>
-  </si>
-  <si>
-    <t>SUPER 542 JARDINES TIJUANA</t>
-  </si>
-  <si>
     <t>4000233513</t>
   </si>
   <si>
@@ -1864,6 +1942,12 @@
     <t>WM 2947 Ensenada Centro</t>
   </si>
   <si>
+    <t>4000241151</t>
+  </si>
+  <si>
+    <t>Chedraui 0121 Churubusco Zentralia</t>
+  </si>
+  <si>
     <t>4000245908</t>
   </si>
   <si>
@@ -2050,12 +2134,6 @@
     <t>EXPRESS 642 TANTOYUCA</t>
   </si>
   <si>
-    <t>4000262914</t>
-  </si>
-  <si>
-    <t>EXPRESS 635 GUADALUPE VICTORIA</t>
-  </si>
-  <si>
     <t>4000262921</t>
   </si>
   <si>
@@ -2092,6 +2170,12 @@
     <t>Food Service de Mexico CeDis Mexico</t>
   </si>
   <si>
+    <t>4000267839</t>
+  </si>
+  <si>
+    <t>WM 1203 Super Plaza Ecatepec</t>
+  </si>
+  <si>
     <t>4000267976</t>
   </si>
   <si>
@@ -2440,6 +2524,12 @@
     <t>Supercito 0694 Kaua</t>
   </si>
   <si>
+    <t>4000373091</t>
+  </si>
+  <si>
+    <t>BA 2062 Playa del Carmen Norte</t>
+  </si>
+  <si>
     <t>4000373106</t>
   </si>
   <si>
@@ -2812,12 +2902,6 @@
     <t>Grupo FRIACO CeDis</t>
   </si>
   <si>
-    <t>4000571971</t>
-  </si>
-  <si>
-    <t>Supercito 794 Minas Iztapalapa</t>
-  </si>
-  <si>
     <t>4000572260</t>
   </si>
   <si>
@@ -2962,6 +3046,12 @@
     <t>BA 3754 Plaza Loreto</t>
   </si>
   <si>
+    <t>6100422625</t>
+  </si>
+  <si>
+    <t>BA 3778 Xochimilco</t>
+  </si>
+  <si>
     <t>6100422938</t>
   </si>
   <si>
@@ -3124,6 +3214,12 @@
     <t>Cobos Gonzalez Asociados SA de CV</t>
   </si>
   <si>
+    <t>6105001687</t>
+  </si>
+  <si>
+    <t>Abarrotes Monterrey SA de CV</t>
+  </si>
+  <si>
     <t>6105003079</t>
   </si>
   <si>
@@ -3790,6 +3886,12 @@
     <t>BAE 2477 Los Encinos</t>
   </si>
   <si>
+    <t>4000320413</t>
+  </si>
+  <si>
+    <t>Abarrotes Casa Vargas Zumpango</t>
+  </si>
+  <si>
     <t>4000320417</t>
   </si>
   <si>
@@ -3844,6 +3946,12 @@
     <t>Abarrotera del Duero Satélite</t>
   </si>
   <si>
+    <t>6100264797</t>
+  </si>
+  <si>
+    <t>Sams Club 6397 Queretaro</t>
+  </si>
+  <si>
     <t>6100264804</t>
   </si>
   <si>
@@ -3862,6 +3970,12 @@
     <t>CeDis Sams 6388 San Martin Obispo</t>
   </si>
   <si>
+    <t>6100306886</t>
+  </si>
+  <si>
+    <t>Sams Club 6584 Ciudad Juarez</t>
+  </si>
+  <si>
     <t>6100399697</t>
   </si>
   <si>
@@ -3985,6 +4099,12 @@
     <t>Economax Bodega Kino</t>
   </si>
   <si>
+    <t>1000119948</t>
+  </si>
+  <si>
+    <t>PCZ Bodega D.A. Aguascalientes</t>
+  </si>
+  <si>
     <t>1000118295</t>
   </si>
   <si>
@@ -4463,6 +4583,12 @@
   </si>
   <si>
     <t>Supercito 0206 Santa María Cuauhtémoc</t>
+  </si>
+  <si>
+    <t>1000322056</t>
+  </si>
+  <si>
+    <t>Supercito 0579 Famsa Chimalhuacán</t>
   </si>
   <si>
     <t>1000281707</t>
@@ -5484,8 +5610,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920293C-2CF3-4BB9-953E-44DFB3E4EAF2}">
-  <dimension ref="A1:D759"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FE902E-C647-4753-8DEE-8325E52C4C4C}">
+  <dimension ref="A1:D780"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5620,21 +5746,21 @@
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -5648,7 +5774,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -5662,7 +5788,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -5676,7 +5802,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -5690,7 +5816,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -5704,7 +5830,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -5718,7 +5844,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -5732,7 +5858,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -5746,7 +5872,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -5760,7 +5886,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -5774,7 +5900,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -5788,7 +5914,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -5802,7 +5928,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -5816,7 +5942,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -5830,7 +5956,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -5844,7 +5970,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -5858,7 +5984,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -5872,7 +5998,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -5914,7 +6040,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -5928,7 +6054,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -5942,7 +6068,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -5956,7 +6082,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -5970,7 +6096,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -5998,7 +6124,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -6138,63 +6264,63 @@
         <v>6</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -6222,7 +6348,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -6306,7 +6432,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -6320,7 +6446,7 @@
         <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -6348,7 +6474,7 @@
         <v>6</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -6362,7 +6488,7 @@
         <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -6474,7 +6600,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -6488,7 +6614,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -6502,7 +6628,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -6544,7 +6670,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -6558,7 +6684,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -6572,7 +6698,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -6600,7 +6726,7 @@
         <v>6</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -6614,7 +6740,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -6628,7 +6754,7 @@
         <v>6</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -6642,7 +6768,7 @@
         <v>6</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -6670,7 +6796,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -6684,7 +6810,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -6698,7 +6824,7 @@
         <v>6</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -6712,7 +6838,7 @@
         <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -6740,7 +6866,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -6754,7 +6880,7 @@
         <v>6</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -6768,7 +6894,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -6782,7 +6908,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -6796,7 +6922,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -6810,7 +6936,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -6824,7 +6950,7 @@
         <v>6</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -6838,7 +6964,7 @@
         <v>6</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -6852,7 +6978,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -6866,7 +6992,7 @@
         <v>6</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -6880,7 +7006,7 @@
         <v>6</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -6894,7 +7020,7 @@
         <v>6</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -6908,7 +7034,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -6922,147 +7048,147 @@
         <v>6</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>214</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="C103" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="C104" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="C105" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="C106" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>223</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="C108" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="C109" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="C110" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="C111" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -7076,7 +7202,7 @@
         <v>6</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -7090,7 +7216,7 @@
         <v>6</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -7104,7 +7230,7 @@
         <v>6</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -7118,7 +7244,7 @@
         <v>6</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -7132,7 +7258,7 @@
         <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -7146,7 +7272,7 @@
         <v>6</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -7160,7 +7286,7 @@
         <v>6</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -7174,7 +7300,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -7188,7 +7314,7 @@
         <v>6</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -7202,7 +7328,7 @@
         <v>6</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -7216,7 +7342,7 @@
         <v>6</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>214</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -7230,57 +7356,57 @@
         <v>6</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="C125" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="C126" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="C127" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>6</v>
@@ -7291,30 +7417,30 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C129" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -7328,7 +7454,7 @@
         <v>6</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -7342,7 +7468,7 @@
         <v>6</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -7356,7 +7482,7 @@
         <v>6</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -7426,7 +7552,7 @@
         <v>6</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -7440,7 +7566,7 @@
         <v>6</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -7454,7 +7580,7 @@
         <v>6</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -7496,7 +7622,7 @@
         <v>6</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -7510,7 +7636,7 @@
         <v>6</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -7538,7 +7664,7 @@
         <v>6</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -7552,7 +7678,7 @@
         <v>6</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -7566,7 +7692,7 @@
         <v>6</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -7580,7 +7706,7 @@
         <v>6</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -7594,7 +7720,7 @@
         <v>6</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -7608,7 +7734,7 @@
         <v>6</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -7622,7 +7748,7 @@
         <v>6</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -7636,7 +7762,7 @@
         <v>6</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -7650,7 +7776,7 @@
         <v>6</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -7664,7 +7790,7 @@
         <v>6</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -7678,7 +7804,7 @@
         <v>6</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -7692,7 +7818,7 @@
         <v>6</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -7706,7 +7832,7 @@
         <v>6</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -7720,7 +7846,7 @@
         <v>6</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -7748,7 +7874,7 @@
         <v>6</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -7762,7 +7888,7 @@
         <v>6</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -7776,7 +7902,7 @@
         <v>6</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -7790,7 +7916,7 @@
         <v>6</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>260</v>
+        <v>109</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -7804,7 +7930,7 @@
         <v>6</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -7818,7 +7944,7 @@
         <v>6</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -7832,7 +7958,7 @@
         <v>6</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -7846,7 +7972,7 @@
         <v>6</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -7860,7 +7986,7 @@
         <v>6</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -7874,7 +8000,7 @@
         <v>6</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>214</v>
+        <v>104</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -7888,7 +8014,7 @@
         <v>6</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -7902,7 +8028,7 @@
         <v>6</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>7</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
@@ -7916,7 +8042,7 @@
         <v>6</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
@@ -7944,7 +8070,7 @@
         <v>6</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -7958,7 +8084,7 @@
         <v>6</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -7972,7 +8098,7 @@
         <v>6</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -7986,7 +8112,7 @@
         <v>6</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
@@ -8000,7 +8126,7 @@
         <v>6</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
@@ -8014,7 +8140,7 @@
         <v>6</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -8028,7 +8154,7 @@
         <v>6</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
@@ -8042,7 +8168,7 @@
         <v>6</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
@@ -8056,7 +8182,7 @@
         <v>6</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
@@ -8070,7 +8196,7 @@
         <v>6</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
@@ -8084,7 +8210,7 @@
         <v>6</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
@@ -8098,7 +8224,7 @@
         <v>6</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
@@ -8112,7 +8238,7 @@
         <v>6</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
@@ -8126,7 +8252,7 @@
         <v>6</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -8140,7 +8266,7 @@
         <v>6</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -8154,7 +8280,7 @@
         <v>6</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -8168,7 +8294,7 @@
         <v>6</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
@@ -8182,7 +8308,7 @@
         <v>6</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -8196,7 +8322,7 @@
         <v>6</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
@@ -8210,7 +8336,7 @@
         <v>6</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
@@ -8224,7 +8350,7 @@
         <v>6</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
@@ -8238,7 +8364,7 @@
         <v>6</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
@@ -8252,7 +8378,7 @@
         <v>6</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -8266,7 +8392,7 @@
         <v>6</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -8280,7 +8406,7 @@
         <v>6</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -8294,7 +8420,7 @@
         <v>6</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
@@ -8308,7 +8434,7 @@
         <v>6</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -8322,7 +8448,7 @@
         <v>6</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
@@ -8336,7 +8462,7 @@
         <v>6</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
@@ -8350,7 +8476,7 @@
         <v>6</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -8364,7 +8490,7 @@
         <v>6</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -8378,7 +8504,7 @@
         <v>6</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
@@ -8392,7 +8518,7 @@
         <v>6</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
@@ -8406,7 +8532,7 @@
         <v>6</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -8420,7 +8546,7 @@
         <v>6</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -8434,7 +8560,7 @@
         <v>6</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -8448,7 +8574,7 @@
         <v>6</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -8462,7 +8588,7 @@
         <v>6</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -8476,7 +8602,7 @@
         <v>6</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -8490,7 +8616,7 @@
         <v>6</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
@@ -8504,7 +8630,7 @@
         <v>6</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
@@ -8518,7 +8644,7 @@
         <v>6</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
@@ -8532,7 +8658,7 @@
         <v>6</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
@@ -8546,7 +8672,7 @@
         <v>6</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -8560,7 +8686,7 @@
         <v>6</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
@@ -8574,7 +8700,7 @@
         <v>6</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -8588,7 +8714,7 @@
         <v>6</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
@@ -8602,7 +8728,7 @@
         <v>6</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -8616,7 +8742,7 @@
         <v>6</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
@@ -8630,7 +8756,7 @@
         <v>6</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -8644,7 +8770,7 @@
         <v>6</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -8658,7 +8784,7 @@
         <v>6</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -8672,7 +8798,7 @@
         <v>6</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -8686,7 +8812,7 @@
         <v>6</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
@@ -8700,7 +8826,7 @@
         <v>6</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
@@ -8714,7 +8840,7 @@
         <v>6</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -8756,7 +8882,7 @@
         <v>6</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
@@ -8770,7 +8896,7 @@
         <v>6</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -8784,7 +8910,7 @@
         <v>6</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
@@ -8798,7 +8924,7 @@
         <v>6</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
@@ -8812,7 +8938,7 @@
         <v>6</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -8826,7 +8952,7 @@
         <v>6</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -8840,7 +8966,7 @@
         <v>6</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -8854,7 +8980,7 @@
         <v>6</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
@@ -8868,7 +8994,7 @@
         <v>6</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
@@ -8882,7 +9008,7 @@
         <v>6</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
@@ -8896,7 +9022,7 @@
         <v>6</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -8910,7 +9036,7 @@
         <v>6</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
@@ -8924,7 +9050,7 @@
         <v>6</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -8938,7 +9064,7 @@
         <v>6</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -8952,7 +9078,7 @@
         <v>6</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -8966,7 +9092,7 @@
         <v>6</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
@@ -8980,7 +9106,7 @@
         <v>6</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -8994,7 +9120,7 @@
         <v>6</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
@@ -9008,7 +9134,7 @@
         <v>6</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -9022,7 +9148,7 @@
         <v>6</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
@@ -9036,7 +9162,7 @@
         <v>6</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -9050,7 +9176,7 @@
         <v>6</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
@@ -9064,7 +9190,7 @@
         <v>6</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -9078,7 +9204,7 @@
         <v>6</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -9092,7 +9218,7 @@
         <v>6</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -9106,7 +9232,7 @@
         <v>6</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
@@ -9120,7 +9246,7 @@
         <v>6</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
@@ -9134,7 +9260,7 @@
         <v>6</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
@@ -9148,7 +9274,7 @@
         <v>6</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -9162,7 +9288,7 @@
         <v>6</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -9176,7 +9302,7 @@
         <v>6</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -9190,7 +9316,7 @@
         <v>6</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -9204,7 +9330,7 @@
         <v>6</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
@@ -9218,7 +9344,7 @@
         <v>6</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -9232,7 +9358,7 @@
         <v>6</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
@@ -9246,7 +9372,7 @@
         <v>6</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
@@ -9260,7 +9386,7 @@
         <v>6</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -9274,7 +9400,7 @@
         <v>6</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
@@ -9288,7 +9414,7 @@
         <v>6</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -9302,7 +9428,7 @@
         <v>6</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
@@ -9316,7 +9442,7 @@
         <v>6</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
@@ -9330,7 +9456,7 @@
         <v>6</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
@@ -9344,7 +9470,7 @@
         <v>6</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
@@ -9358,7 +9484,7 @@
         <v>6</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
@@ -9372,7 +9498,7 @@
         <v>6</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -9386,7 +9512,7 @@
         <v>6</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
@@ -9400,7 +9526,7 @@
         <v>6</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
@@ -9414,7 +9540,7 @@
         <v>6</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
@@ -9428,7 +9554,7 @@
         <v>6</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
@@ -9442,7 +9568,7 @@
         <v>6</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -9456,7 +9582,7 @@
         <v>6</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -9470,7 +9596,7 @@
         <v>6</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>223</v>
+        <v>27</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
@@ -9484,7 +9610,7 @@
         <v>6</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
@@ -9554,7 +9680,7 @@
         <v>6</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -9568,7 +9694,7 @@
         <v>6</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -9582,7 +9708,7 @@
         <v>6</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -9638,7 +9764,7 @@
         <v>6</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
@@ -9652,7 +9778,7 @@
         <v>6</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -9666,7 +9792,7 @@
         <v>6</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
@@ -9680,7 +9806,7 @@
         <v>6</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
@@ -9694,7 +9820,7 @@
         <v>6</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -9834,7 +9960,7 @@
         <v>6</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -9848,7 +9974,7 @@
         <v>6</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
@@ -9862,7 +9988,7 @@
         <v>6</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
@@ -9876,7 +10002,7 @@
         <v>6</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
@@ -9890,7 +10016,7 @@
         <v>6</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
@@ -9904,7 +10030,7 @@
         <v>6</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
@@ -9918,7 +10044,7 @@
         <v>6</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
@@ -9932,7 +10058,7 @@
         <v>6</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
@@ -9946,7 +10072,7 @@
         <v>6</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
@@ -9960,7 +10086,7 @@
         <v>6</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
@@ -9974,7 +10100,7 @@
         <v>6</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
@@ -10044,7 +10170,7 @@
         <v>6</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
@@ -10058,7 +10184,7 @@
         <v>6</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
@@ -10072,7 +10198,7 @@
         <v>6</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
@@ -10086,7 +10212,7 @@
         <v>6</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
@@ -10100,7 +10226,7 @@
         <v>6</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
@@ -10114,7 +10240,7 @@
         <v>6</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
@@ -10128,7 +10254,7 @@
         <v>6</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
@@ -10142,7 +10268,7 @@
         <v>6</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
@@ -10156,7 +10282,7 @@
         <v>6</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
@@ -10170,7 +10296,7 @@
         <v>6</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
@@ -10198,7 +10324,7 @@
         <v>6</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
@@ -10212,7 +10338,7 @@
         <v>6</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
@@ -10226,7 +10352,7 @@
         <v>6</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
@@ -10240,7 +10366,7 @@
         <v>6</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
@@ -10254,7 +10380,7 @@
         <v>6</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
@@ -10268,7 +10394,7 @@
         <v>6</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
@@ -10282,7 +10408,7 @@
         <v>6</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
@@ -10296,7 +10422,7 @@
         <v>6</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
@@ -10310,7 +10436,7 @@
         <v>6</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
@@ -10324,7 +10450,7 @@
         <v>6</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
@@ -10380,7 +10506,7 @@
         <v>6</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
@@ -10394,7 +10520,7 @@
         <v>6</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
@@ -10408,7 +10534,7 @@
         <v>6</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
@@ -10422,7 +10548,7 @@
         <v>6</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
@@ -10436,7 +10562,7 @@
         <v>6</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
@@ -10450,7 +10576,7 @@
         <v>6</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
@@ -10464,7 +10590,7 @@
         <v>6</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
@@ -10478,7 +10604,7 @@
         <v>6</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
@@ -10492,7 +10618,7 @@
         <v>6</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
@@ -10506,7 +10632,7 @@
         <v>6</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
@@ -10520,7 +10646,7 @@
         <v>6</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
@@ -10534,7 +10660,7 @@
         <v>6</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
@@ -10548,7 +10674,7 @@
         <v>6</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
@@ -10604,7 +10730,7 @@
         <v>6</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
@@ -10618,7 +10744,7 @@
         <v>6</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
@@ -10632,7 +10758,7 @@
         <v>6</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
@@ -10646,7 +10772,7 @@
         <v>6</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
@@ -10660,7 +10786,7 @@
         <v>6</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
@@ -10674,7 +10800,7 @@
         <v>6</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
@@ -10688,7 +10814,7 @@
         <v>6</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
@@ -10702,7 +10828,7 @@
         <v>6</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
@@ -10716,7 +10842,7 @@
         <v>6</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
@@ -10730,7 +10856,7 @@
         <v>6</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
@@ -10744,7 +10870,7 @@
         <v>6</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
@@ -10758,7 +10884,7 @@
         <v>6</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
@@ -10772,7 +10898,7 @@
         <v>6</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
@@ -10786,7 +10912,7 @@
         <v>6</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
@@ -10800,7 +10926,7 @@
         <v>6</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
@@ -10814,7 +10940,7 @@
         <v>6</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>214</v>
+        <v>104</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
@@ -10828,7 +10954,7 @@
         <v>6</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
@@ -10842,7 +10968,7 @@
         <v>6</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>223</v>
+        <v>27</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
@@ -10856,7 +10982,7 @@
         <v>6</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
@@ -10870,7 +10996,7 @@
         <v>6</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
@@ -10884,7 +11010,7 @@
         <v>6</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
@@ -10898,7 +11024,7 @@
         <v>6</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
@@ -10912,7 +11038,7 @@
         <v>6</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
@@ -10926,7 +11052,7 @@
         <v>6</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
@@ -10940,7 +11066,7 @@
         <v>6</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
@@ -10954,7 +11080,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
@@ -10968,7 +11094,7 @@
         <v>6</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>100</v>
+        <v>224</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
@@ -10982,7 +11108,7 @@
         <v>6</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
@@ -10996,7 +11122,7 @@
         <v>6</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
@@ -11010,7 +11136,7 @@
         <v>6</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
@@ -11024,7 +11150,7 @@
         <v>6</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
@@ -11038,7 +11164,7 @@
         <v>6</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>20</v>
+        <v>235</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
@@ -11052,7 +11178,7 @@
         <v>6</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
@@ -11066,7 +11192,7 @@
         <v>6</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
@@ -11080,7 +11206,7 @@
         <v>6</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
@@ -11094,7 +11220,7 @@
         <v>6</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
@@ -11108,7 +11234,7 @@
         <v>6</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
@@ -11122,7 +11248,7 @@
         <v>6</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
@@ -11136,7 +11262,7 @@
         <v>6</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
@@ -11150,7 +11276,7 @@
         <v>6</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
@@ -11164,7 +11290,7 @@
         <v>6</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
@@ -11178,7 +11304,7 @@
         <v>6</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
@@ -11192,7 +11318,7 @@
         <v>6</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
@@ -11206,7 +11332,7 @@
         <v>6</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
@@ -11220,7 +11346,7 @@
         <v>6</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
@@ -11248,7 +11374,7 @@
         <v>6</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
@@ -11262,7 +11388,7 @@
         <v>6</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
@@ -11276,7 +11402,7 @@
         <v>6</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.35">
@@ -11290,7 +11416,7 @@
         <v>6</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.35">
@@ -11304,7 +11430,7 @@
         <v>6</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
@@ -11318,7 +11444,7 @@
         <v>6</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.35">
@@ -11332,7 +11458,7 @@
         <v>6</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.35">
@@ -11346,7 +11472,7 @@
         <v>6</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
@@ -11360,7 +11486,7 @@
         <v>6</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.35">
@@ -11374,7 +11500,7 @@
         <v>6</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
@@ -11388,7 +11514,7 @@
         <v>6</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
@@ -11402,7 +11528,7 @@
         <v>6</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.35">
@@ -11416,7 +11542,7 @@
         <v>6</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.35">
@@ -11430,7 +11556,7 @@
         <v>6</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
@@ -11444,7 +11570,7 @@
         <v>6</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.35">
@@ -11458,7 +11584,7 @@
         <v>6</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.35">
@@ -11472,7 +11598,7 @@
         <v>6</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
@@ -11486,7 +11612,7 @@
         <v>6</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.35">
@@ -11500,7 +11626,7 @@
         <v>6</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.35">
@@ -11514,7 +11640,7 @@
         <v>6</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
@@ -11528,7 +11654,7 @@
         <v>6</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.35">
@@ -11542,7 +11668,7 @@
         <v>6</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.35">
@@ -11556,7 +11682,7 @@
         <v>6</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
@@ -11570,7 +11696,7 @@
         <v>6</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>214</v>
+        <v>104</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.35">
@@ -11584,7 +11710,7 @@
         <v>6</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>214</v>
+        <v>104</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.35">
@@ -11598,7 +11724,7 @@
         <v>6</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>214</v>
+        <v>104</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
@@ -11612,7 +11738,7 @@
         <v>6</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.35">
@@ -11626,7 +11752,7 @@
         <v>6</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.35">
@@ -11640,7 +11766,7 @@
         <v>6</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
@@ -11654,7 +11780,7 @@
         <v>6</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.35">
@@ -11668,7 +11794,7 @@
         <v>6</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.35">
@@ -11682,7 +11808,7 @@
         <v>6</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
@@ -11696,7 +11822,7 @@
         <v>6</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.35">
@@ -11710,7 +11836,7 @@
         <v>6</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.35">
@@ -11724,7 +11850,7 @@
         <v>6</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
@@ -11738,7 +11864,7 @@
         <v>6</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.35">
@@ -11752,7 +11878,7 @@
         <v>6</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.35">
@@ -11766,7 +11892,7 @@
         <v>6</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
@@ -11780,7 +11906,7 @@
         <v>6</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.35">
@@ -11794,7 +11920,7 @@
         <v>6</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.35">
@@ -11808,7 +11934,7 @@
         <v>6</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
@@ -11822,7 +11948,7 @@
         <v>6</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.35">
@@ -11836,7 +11962,7 @@
         <v>6</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.35">
@@ -11850,7 +11976,7 @@
         <v>6</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
@@ -11864,7 +11990,7 @@
         <v>6</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.35">
@@ -11878,7 +12004,7 @@
         <v>6</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.35">
@@ -11892,7 +12018,7 @@
         <v>6</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
@@ -11906,7 +12032,7 @@
         <v>6</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.35">
@@ -11920,7 +12046,7 @@
         <v>6</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.35">
@@ -11934,7 +12060,7 @@
         <v>6</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
@@ -11948,7 +12074,7 @@
         <v>6</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.35">
@@ -11962,7 +12088,7 @@
         <v>6</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.35">
@@ -11976,7 +12102,7 @@
         <v>6</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
@@ -11990,7 +12116,7 @@
         <v>6</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.35">
@@ -12004,7 +12130,7 @@
         <v>6</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.35">
@@ -12018,7 +12144,7 @@
         <v>6</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
@@ -12046,7 +12172,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.35">
@@ -12060,7 +12186,7 @@
         <v>6</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
@@ -12074,7 +12200,7 @@
         <v>6</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.35">
@@ -12088,7 +12214,7 @@
         <v>6</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.35">
@@ -12102,7 +12228,7 @@
         <v>6</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
@@ -12116,7 +12242,7 @@
         <v>6</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.35">
@@ -12130,7 +12256,7 @@
         <v>6</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.35">
@@ -12144,7 +12270,7 @@
         <v>6</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>214</v>
+        <v>17</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
@@ -12158,7 +12284,7 @@
         <v>6</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.35">
@@ -12172,7 +12298,7 @@
         <v>6</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.35">
@@ -12186,7 +12312,7 @@
         <v>6</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>260</v>
+        <v>14</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
@@ -12200,7 +12326,7 @@
         <v>6</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.35">
@@ -12214,7 +12340,7 @@
         <v>6</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.35">
@@ -12228,7 +12354,7 @@
         <v>6</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
@@ -12242,7 +12368,7 @@
         <v>6</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.35">
@@ -12256,7 +12382,7 @@
         <v>6</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.35">
@@ -12270,7 +12396,7 @@
         <v>6</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
@@ -12284,7 +12410,7 @@
         <v>6</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.35">
@@ -12298,7 +12424,7 @@
         <v>6</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.35">
@@ -12312,7 +12438,7 @@
         <v>6</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
@@ -12326,7 +12452,7 @@
         <v>6</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.35">
@@ -12340,7 +12466,7 @@
         <v>6</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.35">
@@ -12354,7 +12480,7 @@
         <v>6</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
@@ -12368,7 +12494,7 @@
         <v>6</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.35">
@@ -12382,7 +12508,7 @@
         <v>6</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>25</v>
+        <v>272</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.35">
@@ -12396,7 +12522,7 @@
         <v>6</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
@@ -12410,7 +12536,7 @@
         <v>6</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.35">
@@ -12424,7 +12550,7 @@
         <v>6</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.35">
@@ -12438,7 +12564,7 @@
         <v>6</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
@@ -12452,7 +12578,7 @@
         <v>6</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.35">
@@ -12466,7 +12592,7 @@
         <v>6</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.35">
@@ -12480,7 +12606,7 @@
         <v>6</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
@@ -12494,7 +12620,7 @@
         <v>6</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>214</v>
+        <v>27</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.35">
@@ -12508,7 +12634,7 @@
         <v>6</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.35">
@@ -12522,7 +12648,7 @@
         <v>6</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
@@ -12536,7 +12662,7 @@
         <v>6</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.35">
@@ -12550,7 +12676,7 @@
         <v>6</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.35">
@@ -12564,7 +12690,7 @@
         <v>6</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
@@ -12578,7 +12704,7 @@
         <v>6</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.35">
@@ -12592,7 +12718,7 @@
         <v>6</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.35">
@@ -12606,7 +12732,7 @@
         <v>6</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
@@ -12620,7 +12746,7 @@
         <v>6</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.35">
@@ -12634,7 +12760,7 @@
         <v>6</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.35">
@@ -12648,7 +12774,7 @@
         <v>6</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
@@ -12662,7 +12788,7 @@
         <v>6</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.35">
@@ -12676,7 +12802,7 @@
         <v>6</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.35">
@@ -12690,7 +12816,7 @@
         <v>6</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
@@ -12704,7 +12830,7 @@
         <v>6</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.35">
@@ -12718,7 +12844,7 @@
         <v>6</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.35">
@@ -12732,7 +12858,7 @@
         <v>6</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
@@ -12746,7 +12872,7 @@
         <v>6</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.35">
@@ -12760,7 +12886,7 @@
         <v>6</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.35">
@@ -12774,7 +12900,7 @@
         <v>6</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
@@ -12788,7 +12914,7 @@
         <v>6</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.35">
@@ -12802,7 +12928,7 @@
         <v>6</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.35">
@@ -12816,7 +12942,7 @@
         <v>6</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
@@ -12830,7 +12956,7 @@
         <v>6</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.35">
@@ -12844,7 +12970,7 @@
         <v>6</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.35">
@@ -12858,7 +12984,7 @@
         <v>6</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
@@ -12900,7 +13026,7 @@
         <v>6</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
@@ -12914,7 +13040,7 @@
         <v>6</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.35">
@@ -13012,7 +13138,7 @@
         <v>6</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.35">
@@ -13026,7 +13152,7 @@
         <v>6</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
@@ -13194,7 +13320,7 @@
         <v>6</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
@@ -13208,7 +13334,7 @@
         <v>6</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.35">
@@ -13222,7 +13348,7 @@
         <v>6</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.35">
@@ -13236,7 +13362,7 @@
         <v>6</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
@@ -13250,7 +13376,7 @@
         <v>6</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.35">
@@ -13264,7 +13390,7 @@
         <v>6</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.35">
@@ -13278,7 +13404,7 @@
         <v>6</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
@@ -13292,7 +13418,7 @@
         <v>6</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.35">
@@ -13306,7 +13432,7 @@
         <v>6</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.35">
@@ -13320,7 +13446,7 @@
         <v>6</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
@@ -13334,7 +13460,7 @@
         <v>6</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.35">
@@ -13348,7 +13474,7 @@
         <v>6</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.35">
@@ -13362,7 +13488,7 @@
         <v>6</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
@@ -13376,7 +13502,7 @@
         <v>6</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.35">
@@ -13390,7 +13516,7 @@
         <v>6</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.35">
@@ -13404,7 +13530,7 @@
         <v>6</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
@@ -13418,7 +13544,7 @@
         <v>6</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.35">
@@ -13432,7 +13558,7 @@
         <v>6</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.35">
@@ -13446,7 +13572,7 @@
         <v>6</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
@@ -13460,7 +13586,7 @@
         <v>6</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.35">
@@ -13474,7 +13600,7 @@
         <v>6</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.35">
@@ -13488,7 +13614,7 @@
         <v>6</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
@@ -13502,7 +13628,7 @@
         <v>6</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.35">
@@ -13516,7 +13642,7 @@
         <v>6</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.35">
@@ -13530,7 +13656,7 @@
         <v>6</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
@@ -13544,7 +13670,7 @@
         <v>6</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.35">
@@ -13558,7 +13684,7 @@
         <v>6</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.35">
@@ -13572,7 +13698,7 @@
         <v>6</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
@@ -13586,7 +13712,7 @@
         <v>6</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.35">
@@ -13600,7 +13726,7 @@
         <v>6</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.35">
@@ -13614,7 +13740,7 @@
         <v>6</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
@@ -13628,7 +13754,7 @@
         <v>6</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
@@ -13642,7 +13768,7 @@
         <v>6</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.35">
@@ -13656,7 +13782,7 @@
         <v>6</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.35">
@@ -13670,7 +13796,7 @@
         <v>6</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.35">
@@ -13684,7 +13810,7 @@
         <v>6</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.35">
@@ -13698,7 +13824,7 @@
         <v>6</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.35">
@@ -13712,7 +13838,7 @@
         <v>6</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.35">
@@ -13726,7 +13852,7 @@
         <v>6</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.35">
@@ -13740,7 +13866,7 @@
         <v>6</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.35">
@@ -13754,7 +13880,7 @@
         <v>6</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.35">
@@ -13768,7 +13894,7 @@
         <v>6</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.35">
@@ -13782,7 +13908,7 @@
         <v>6</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.35">
@@ -13796,7 +13922,7 @@
         <v>6</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.35">
@@ -13810,7 +13936,7 @@
         <v>6</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.35">
@@ -13824,7 +13950,7 @@
         <v>6</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.35">
@@ -13838,7 +13964,7 @@
         <v>6</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.35">
@@ -13852,7 +13978,7 @@
         <v>6</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.35">
@@ -13866,7 +13992,7 @@
         <v>6</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.35">
@@ -13880,7 +14006,7 @@
         <v>6</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.35">
@@ -13894,7 +14020,7 @@
         <v>6</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.35">
@@ -13908,7 +14034,7 @@
         <v>6</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.35">
@@ -13922,7 +14048,7 @@
         <v>6</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.35">
@@ -13936,7 +14062,7 @@
         <v>6</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.35">
@@ -13950,7 +14076,7 @@
         <v>6</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.35">
@@ -13964,7 +14090,7 @@
         <v>6</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.35">
@@ -13978,7 +14104,7 @@
         <v>6</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.35">
@@ -13992,7 +14118,7 @@
         <v>6</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.35">
@@ -14006,7 +14132,7 @@
         <v>6</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.35">
@@ -14020,7 +14146,7 @@
         <v>6</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.35">
@@ -14034,7 +14160,7 @@
         <v>6</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.35">
@@ -14048,7 +14174,7 @@
         <v>6</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.35">
@@ -14062,7 +14188,7 @@
         <v>6</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.35">
@@ -14076,7 +14202,7 @@
         <v>6</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.35">
@@ -14090,7 +14216,7 @@
         <v>6</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.35">
@@ -14104,7 +14230,7 @@
         <v>6</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.35">
@@ -14118,7 +14244,7 @@
         <v>6</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.35">
@@ -14132,7 +14258,7 @@
         <v>6</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.35">
@@ -14146,7 +14272,7 @@
         <v>6</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.35">
@@ -14160,7 +14286,7 @@
         <v>6</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.35">
@@ -14174,7 +14300,7 @@
         <v>6</v>
       </c>
       <c r="D620" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.35">
@@ -14188,7 +14314,7 @@
         <v>6</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.35">
@@ -14202,7 +14328,7 @@
         <v>6</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.35">
@@ -14216,7 +14342,7 @@
         <v>6</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.35">
@@ -14230,7 +14356,7 @@
         <v>6</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.35">
@@ -14244,7 +14370,7 @@
         <v>6</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.35">
@@ -14258,7 +14384,7 @@
         <v>6</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.35">
@@ -14272,7 +14398,7 @@
         <v>6</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.35">
@@ -14286,7 +14412,7 @@
         <v>6</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.35">
@@ -14300,7 +14426,7 @@
         <v>6</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.35">
@@ -14314,7 +14440,7 @@
         <v>6</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.35">
@@ -14328,7 +14454,7 @@
         <v>6</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.35">
@@ -14342,7 +14468,7 @@
         <v>6</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.35">
@@ -14356,7 +14482,7 @@
         <v>6</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.35">
@@ -14370,7 +14496,7 @@
         <v>6</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.35">
@@ -14384,7 +14510,7 @@
         <v>6</v>
       </c>
       <c r="D635" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.35">
@@ -14398,7 +14524,7 @@
         <v>6</v>
       </c>
       <c r="D636" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.35">
@@ -14412,7 +14538,7 @@
         <v>6</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.35">
@@ -14426,7 +14552,7 @@
         <v>6</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.35">
@@ -14440,7 +14566,7 @@
         <v>6</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.35">
@@ -14454,7 +14580,7 @@
         <v>6</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.35">
@@ -14468,7 +14594,7 @@
         <v>6</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.35">
@@ -14482,7 +14608,7 @@
         <v>6</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.35">
@@ -14496,7 +14622,7 @@
         <v>6</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.35">
@@ -14510,7 +14636,7 @@
         <v>6</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.35">
@@ -14524,7 +14650,7 @@
         <v>6</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.35">
@@ -14538,301 +14664,301 @@
         <v>6</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>1305</v>
+        <v>27</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A647" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B647" s="2" t="s">
         <v>1306</v>
       </c>
-      <c r="B647" s="2" t="s">
-        <v>1307</v>
-      </c>
       <c r="C647" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>1305</v>
+        <v>104</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A648" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B648" s="2" t="s">
         <v>1308</v>
       </c>
-      <c r="B648" s="2" t="s">
-        <v>1309</v>
-      </c>
       <c r="C648" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>1305</v>
+        <v>27</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A649" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B649" s="2" t="s">
         <v>1310</v>
       </c>
-      <c r="B649" s="2" t="s">
-        <v>1311</v>
-      </c>
       <c r="C649" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A650" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B650" s="2" t="s">
         <v>1312</v>
       </c>
-      <c r="B650" s="2" t="s">
-        <v>1313</v>
-      </c>
       <c r="C650" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D650" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A651" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B651" s="2" t="s">
         <v>1314</v>
       </c>
-      <c r="B651" s="2" t="s">
-        <v>1315</v>
-      </c>
       <c r="C651" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A652" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B652" s="2" t="s">
         <v>1316</v>
       </c>
-      <c r="B652" s="2" t="s">
-        <v>1317</v>
-      </c>
       <c r="C652" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A653" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B653" s="2" t="s">
         <v>1318</v>
       </c>
-      <c r="B653" s="2" t="s">
-        <v>1319</v>
-      </c>
       <c r="C653" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A654" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B654" s="2" t="s">
         <v>1320</v>
       </c>
-      <c r="B654" s="2" t="s">
-        <v>1321</v>
-      </c>
       <c r="C654" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D654" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A655" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B655" s="2" t="s">
         <v>1322</v>
       </c>
-      <c r="B655" s="2" t="s">
-        <v>1323</v>
-      </c>
       <c r="C655" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D655" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A656" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B656" s="2" t="s">
         <v>1324</v>
       </c>
-      <c r="B656" s="2" t="s">
-        <v>1325</v>
-      </c>
       <c r="C656" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A657" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B657" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="B657" s="2" t="s">
-        <v>1327</v>
-      </c>
       <c r="C657" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A658" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B658" s="2" t="s">
         <v>1328</v>
       </c>
-      <c r="B658" s="2" t="s">
-        <v>1329</v>
-      </c>
       <c r="C658" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A659" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B659" s="2" t="s">
         <v>1330</v>
       </c>
-      <c r="B659" s="2" t="s">
-        <v>1331</v>
-      </c>
       <c r="C659" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A660" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B660" s="2" t="s">
         <v>1332</v>
       </c>
-      <c r="B660" s="2" t="s">
-        <v>1333</v>
-      </c>
       <c r="C660" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A661" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B661" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="B661" s="2" t="s">
-        <v>1335</v>
-      </c>
       <c r="C661" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A662" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B662" s="2" t="s">
         <v>1336</v>
       </c>
-      <c r="B662" s="2" t="s">
-        <v>1337</v>
-      </c>
       <c r="C662" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A663" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B663" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="B663" s="2" t="s">
-        <v>1339</v>
-      </c>
       <c r="C663" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>1340</v>
+        <v>27</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A664" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>1340</v>
+        <v>104</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A665" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C665" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D665" s="2" t="s">
         <v>1343</v>
-      </c>
-      <c r="B665" s="2" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C665" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D665" s="2" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A666" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B666" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="B666" s="2" t="s">
-        <v>1346</v>
-      </c>
       <c r="C666" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A667" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B667" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="B667" s="2" t="s">
-        <v>784</v>
-      </c>
       <c r="C667" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.35">
@@ -14846,7 +14972,7 @@
         <v>6</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>1340</v>
+        <v>27</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.35">
@@ -14860,7 +14986,7 @@
         <v>6</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>1340</v>
+        <v>14</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.35">
@@ -14868,55 +14994,55 @@
         <v>1352</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>868</v>
+        <v>1353</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>1340</v>
+        <v>14</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A671" s="2" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="672" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A672" s="2" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>1340</v>
+        <v>14</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A673" s="2" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>1359</v>
+        <v>104</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.35">
@@ -14930,7 +15056,7 @@
         <v>6</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>1340</v>
+        <v>14</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.35">
@@ -14944,7 +15070,7 @@
         <v>6</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>1340</v>
+        <v>14</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.35">
@@ -14958,7 +15084,7 @@
         <v>6</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>1359</v>
+        <v>14</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.35">
@@ -14972,7 +15098,7 @@
         <v>6</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>1359</v>
+        <v>7</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.35">
@@ -14986,7 +15112,7 @@
         <v>6</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>1340</v>
+        <v>27</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.35">
@@ -15000,7 +15126,7 @@
         <v>6</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>1340</v>
+        <v>14</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.35">
@@ -15014,7 +15140,7 @@
         <v>6</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>1340</v>
+        <v>20</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.35">
@@ -15028,7 +15154,7 @@
         <v>6</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>1359</v>
+        <v>7</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.35">
@@ -15042,7 +15168,7 @@
         <v>6</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>1340</v>
+        <v>7</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.35">
@@ -15056,63 +15182,63 @@
         <v>6</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>1340</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A684" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C684" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D684" s="2" t="s">
         <v>1380</v>
-      </c>
-      <c r="B684" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C684" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D684" s="2" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A685" s="2" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>1340</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A686" s="2" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="687" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A687" s="2" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>1387</v>
+        <v>812</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>1359</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.35">
@@ -15126,7 +15252,7 @@
         <v>6</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>1340</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.35">
@@ -15140,7 +15266,7 @@
         <v>6</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>1359</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.35">
@@ -15148,55 +15274,55 @@
         <v>1392</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1393</v>
+        <v>898</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>1359</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A691" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B691" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="B691" s="2" t="s">
+      <c r="C691" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D691" s="2" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A692" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="C691" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D691" s="2" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A692" s="2" t="s">
+      <c r="B692" s="2" t="s">
         <v>1396</v>
       </c>
-      <c r="B692" s="2" t="s">
-        <v>1397</v>
-      </c>
       <c r="C692" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D692" s="2" t="s">
-        <v>1359</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A693" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B693" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="B693" s="2" t="s">
+      <c r="C693" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D693" s="2" t="s">
         <v>1399</v>
-      </c>
-      <c r="C693" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D693" s="2" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.35">
@@ -15210,7 +15336,7 @@
         <v>6</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>1359</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.35">
@@ -15224,7 +15350,7 @@
         <v>6</v>
       </c>
       <c r="D695" s="2" t="s">
-        <v>20</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.35">
@@ -15238,7 +15364,7 @@
         <v>6</v>
       </c>
       <c r="D696" s="2" t="s">
-        <v>1305</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.35">
@@ -15252,7 +15378,7 @@
         <v>6</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>20</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.35">
@@ -15266,7 +15392,7 @@
         <v>6</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>105</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.35">
@@ -15280,7 +15406,7 @@
         <v>6</v>
       </c>
       <c r="D699" s="2" t="s">
-        <v>14</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.35">
@@ -15294,7 +15420,7 @@
         <v>6</v>
       </c>
       <c r="D700" s="2" t="s">
-        <v>25</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.35">
@@ -15308,7 +15434,7 @@
         <v>6</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>14</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.35">
@@ -15322,7 +15448,7 @@
         <v>6</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>100</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.35">
@@ -15336,7 +15462,7 @@
         <v>6</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>1340</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.35">
@@ -15350,7 +15476,7 @@
         <v>6</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>100</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.35">
@@ -15364,7 +15490,7 @@
         <v>6</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>7</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.35">
@@ -15378,10 +15504,10 @@
         <v>6</v>
       </c>
       <c r="D706" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A707" s="2" t="s">
         <v>1426</v>
       </c>
@@ -15392,7 +15518,7 @@
         <v>6</v>
       </c>
       <c r="D707" s="2" t="s">
-        <v>14</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.35">
@@ -15406,7 +15532,7 @@
         <v>6</v>
       </c>
       <c r="D708" s="2" t="s">
-        <v>14</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.35">
@@ -15420,7 +15546,7 @@
         <v>6</v>
       </c>
       <c r="D709" s="2" t="s">
-        <v>20</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.35">
@@ -15434,7 +15560,7 @@
         <v>6</v>
       </c>
       <c r="D710" s="2" t="s">
-        <v>100</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.35">
@@ -15448,7 +15574,7 @@
         <v>6</v>
       </c>
       <c r="D711" s="2" t="s">
-        <v>14</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.35">
@@ -15462,7 +15588,7 @@
         <v>6</v>
       </c>
       <c r="D712" s="2" t="s">
-        <v>7</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.35">
@@ -15476,7 +15602,7 @@
         <v>6</v>
       </c>
       <c r="D713" s="2" t="s">
-        <v>7</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.35">
@@ -15490,7 +15616,7 @@
         <v>6</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>7</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.35">
@@ -15504,7 +15630,7 @@
         <v>6</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.35">
@@ -15518,7 +15644,7 @@
         <v>6</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>14</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.35">
@@ -15532,7 +15658,7 @@
         <v>6</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.35">
@@ -15546,7 +15672,7 @@
         <v>6</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.35">
@@ -15574,7 +15700,7 @@
         <v>6</v>
       </c>
       <c r="D720" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.35">
@@ -15588,7 +15714,7 @@
         <v>6</v>
       </c>
       <c r="D721" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.35">
@@ -15602,7 +15728,7 @@
         <v>6</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.35">
@@ -15616,7 +15742,7 @@
         <v>6</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>100</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.35">
@@ -15630,7 +15756,7 @@
         <v>6</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.35">
@@ -15644,7 +15770,7 @@
         <v>6</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.35">
@@ -15658,7 +15784,7 @@
         <v>6</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.35">
@@ -15672,7 +15798,7 @@
         <v>6</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.35">
@@ -15700,7 +15826,7 @@
         <v>6</v>
       </c>
       <c r="D729" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.35">
@@ -15714,7 +15840,7 @@
         <v>6</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>1340</v>
+        <v>104</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.35">
@@ -15728,7 +15854,7 @@
         <v>6</v>
       </c>
       <c r="D731" s="2" t="s">
-        <v>1340</v>
+        <v>14</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.35">
@@ -15742,7 +15868,7 @@
         <v>6</v>
       </c>
       <c r="D732" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.35">
@@ -15756,7 +15882,7 @@
         <v>6</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.35">
@@ -15770,7 +15896,7 @@
         <v>6</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.35">
@@ -15784,7 +15910,7 @@
         <v>6</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.35">
@@ -15812,7 +15938,7 @@
         <v>6</v>
       </c>
       <c r="D737" s="2" t="s">
-        <v>1359</v>
+        <v>14</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.35">
@@ -15826,7 +15952,7 @@
         <v>6</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.35">
@@ -15840,7 +15966,7 @@
         <v>6</v>
       </c>
       <c r="D739" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.35">
@@ -15854,7 +15980,7 @@
         <v>6</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.35">
@@ -15868,7 +15994,7 @@
         <v>6</v>
       </c>
       <c r="D741" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.35">
@@ -15882,7 +16008,7 @@
         <v>6</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.35">
@@ -15896,7 +16022,7 @@
         <v>6</v>
       </c>
       <c r="D743" s="2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.35">
@@ -15910,7 +16036,7 @@
         <v>6</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.35">
@@ -15924,7 +16050,7 @@
         <v>6</v>
       </c>
       <c r="D745" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.35">
@@ -15938,7 +16064,7 @@
         <v>6</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.35">
@@ -15952,7 +16078,7 @@
         <v>6</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.35">
@@ -15966,7 +16092,7 @@
         <v>6</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.35">
@@ -15980,7 +16106,7 @@
         <v>6</v>
       </c>
       <c r="D749" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.35">
@@ -15994,7 +16120,7 @@
         <v>6</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>14</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.35">
@@ -16008,7 +16134,7 @@
         <v>6</v>
       </c>
       <c r="D751" s="2" t="s">
-        <v>25</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.35">
@@ -16022,7 +16148,7 @@
         <v>6</v>
       </c>
       <c r="D752" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.35">
@@ -16036,7 +16162,7 @@
         <v>6</v>
       </c>
       <c r="D753" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.35">
@@ -16050,7 +16176,7 @@
         <v>6</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.35">
@@ -16064,7 +16190,7 @@
         <v>6</v>
       </c>
       <c r="D755" s="2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.35">
@@ -16078,7 +16204,7 @@
         <v>6</v>
       </c>
       <c r="D756" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.35">
@@ -16092,7 +16218,7 @@
         <v>6</v>
       </c>
       <c r="D757" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.35">
@@ -16106,7 +16232,7 @@
         <v>6</v>
       </c>
       <c r="D758" s="2" t="s">
-        <v>25</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.35">
@@ -16120,11 +16246,305 @@
         <v>6</v>
       </c>
       <c r="D759" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A760" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D760" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A761" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D761" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A762" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D762" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A763" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D763" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A764" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D764" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A765" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B765" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D765" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A766" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D766" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A767" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D767" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A768" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C768" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D768" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A769" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B769" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D769" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A770" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C770" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D770" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A771" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C771" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D771" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A772" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C772" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D772" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A773" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C773" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D773" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A774" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D774" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A775" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B775" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C775" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D775" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A776" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C776" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D776" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A777" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C777" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D777" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A778" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C778" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D778" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A779" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C779" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D779" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A780" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C780" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D780" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D759" xr:uid="{B14E47EF-08FD-48CC-BA02-F7E4E7CC06EA}"/>
+  <autoFilter ref="A1:D780" xr:uid="{287D1CB5-DFE9-4D1C-800E-3391AF9526AB}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Incontactables.xlsx
+++ b/Incontactables.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CB8E7A0-DC18-4962-B0B0-B02780FC555D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BD5CC1F-F0D8-4C7F-9F46-23518A28CCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="31560" windowHeight="18810" xr2:uid="{F3F0BE0B-C0A2-4733-B1A2-C9BF4135D52D}"/>
+    <workbookView xWindow="11240" yWindow="4390" windowWidth="18530" windowHeight="13770" xr2:uid="{EBDC6A5A-B8E0-4775-983F-EFE534CFF978}"/>
   </bookViews>
   <sheets>
-    <sheet name="report1756479939638" sheetId="1" r:id="rId1"/>
+    <sheet name="report1757520154756" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">report1756479939638!$A$1:$D$780</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">report1757520154756!$A$1:$D$797</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="1574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="1608">
   <si>
     <t>Delv Ship-To Party</t>
   </si>
@@ -259,6 +259,15 @@
     <t>HIPER 116 SENDERO ESCOBEDO</t>
   </si>
   <si>
+    <t>4000018974</t>
+  </si>
+  <si>
+    <t>Disroga SA de CV</t>
+  </si>
+  <si>
+    <t>Abarroteros</t>
+  </si>
+  <si>
     <t>4000019272</t>
   </si>
   <si>
@@ -337,9 +346,6 @@
     <t>Almacenes Treviño Gonzalez SA de CV</t>
   </si>
   <si>
-    <t>Abarroteros</t>
-  </si>
-  <si>
     <t>4000050800</t>
   </si>
   <si>
@@ -535,6 +541,12 @@
     <t>MEGA 953 SAN MIGUEL HUEHUETOCA</t>
   </si>
   <si>
+    <t>4000063018</t>
+  </si>
+  <si>
+    <t>MEGA 889 VALLARTA MARINA</t>
+  </si>
+  <si>
     <t>4000063020</t>
   </si>
   <si>
@@ -787,6 +799,12 @@
     <t>WM 1003 Playa del Carmen</t>
   </si>
   <si>
+    <t>4000101241</t>
+  </si>
+  <si>
+    <t>BA 1179 Morelia Norte</t>
+  </si>
+  <si>
     <t>4000101372</t>
   </si>
   <si>
@@ -862,6 +880,12 @@
     <t>BA 1026 Las Americas</t>
   </si>
   <si>
+    <t>4000116084</t>
+  </si>
+  <si>
+    <t>MERCADO 963 GALERIAS CHALCO</t>
+  </si>
+  <si>
     <t>4000116085</t>
   </si>
   <si>
@@ -1114,6 +1138,12 @@
     <t>HIPER 695 RAFAEL BUELNA</t>
   </si>
   <si>
+    <t>4000158313</t>
+  </si>
+  <si>
+    <t>HIPER 697 HERMOSILLO SOLIDARIDAD</t>
+  </si>
+  <si>
     <t>4000158315</t>
   </si>
   <si>
@@ -1204,6 +1234,12 @@
     <t>Walmart Express Parque Polanco 3025</t>
   </si>
   <si>
+    <t>4000165140</t>
+  </si>
+  <si>
+    <t>BA 1663 El Manantial</t>
+  </si>
+  <si>
     <t>4000165141</t>
   </si>
   <si>
@@ -1312,6 +1348,12 @@
     <t>HIPER 247 PASEO LA JOYA</t>
   </si>
   <si>
+    <t>4000176308</t>
+  </si>
+  <si>
+    <t>BA 3066 Antonio Rocha</t>
+  </si>
+  <si>
     <t>4000178393</t>
   </si>
   <si>
@@ -1516,6 +1558,12 @@
     <t>HIPER 472 QUIROGA</t>
   </si>
   <si>
+    <t>4000199866</t>
+  </si>
+  <si>
+    <t>WM 2179 San Nicolas</t>
+  </si>
+  <si>
     <t>4000199868</t>
   </si>
   <si>
@@ -1732,12 +1780,24 @@
     <t>MI BA 3677 Ario de Rosales</t>
   </si>
   <si>
+    <t>4000224767</t>
+  </si>
+  <si>
+    <t>Super Che Selecto 0652 Samara Sta Fe</t>
+  </si>
+  <si>
     <t>4000226442</t>
   </si>
   <si>
     <t>BA 3560 Panamericana</t>
   </si>
   <si>
+    <t>4000226489</t>
+  </si>
+  <si>
+    <t>Superama 1247 San Jeronimo</t>
+  </si>
+  <si>
     <t>4000226552</t>
   </si>
   <si>
@@ -2056,6 +2116,12 @@
     <t>BA 2994 Duarte</t>
   </si>
   <si>
+    <t>4000256801</t>
+  </si>
+  <si>
+    <t>BA 3065 Bosques del Va</t>
+  </si>
+  <si>
     <t>4000256906</t>
   </si>
   <si>
@@ -2158,6 +2224,18 @@
     <t>Sams Club 4989 Vasco de Quiroga</t>
   </si>
   <si>
+    <t>4000263105</t>
+  </si>
+  <si>
+    <t>WM 5469 Rio de los Remedios</t>
+  </si>
+  <si>
+    <t>4000263651</t>
+  </si>
+  <si>
+    <t>Selecto 098 Santa Fe</t>
+  </si>
+  <si>
     <t>4000263933</t>
   </si>
   <si>
@@ -2362,6 +2440,12 @@
     <t>WM 2271 Ags. Oriente</t>
   </si>
   <si>
+    <t>4000318549</t>
+  </si>
+  <si>
+    <t>BA 3187 Tlacote</t>
+  </si>
+  <si>
     <t>4000318554</t>
   </si>
   <si>
@@ -2434,12 +2518,6 @@
     <t>SUPER 432 BUENAVISTA</t>
   </si>
   <si>
-    <t>4000351464</t>
-  </si>
-  <si>
-    <t>Ley Sendero Tijuana 1302</t>
-  </si>
-  <si>
     <t>4000355872</t>
   </si>
   <si>
@@ -2908,6 +2986,12 @@
     <t>Walmart 5041 Nuevo Mexicali</t>
   </si>
   <si>
+    <t>4000574446</t>
+  </si>
+  <si>
+    <t>Supercito 780 Santiago Topilejo</t>
+  </si>
+  <si>
     <t>4000576617</t>
   </si>
   <si>
@@ -3076,6 +3160,12 @@
     <t>Superama 3843 Division del Norte</t>
   </si>
   <si>
+    <t>6100423232</t>
+  </si>
+  <si>
+    <t>WM 3848 Taxqueña</t>
+  </si>
+  <si>
     <t>6100423269</t>
   </si>
   <si>
@@ -3184,6 +3274,12 @@
     <t>BA 3888 Via Morelos</t>
   </si>
   <si>
+    <t>6100715792</t>
+  </si>
+  <si>
+    <t>Sams Club 6236 Durango</t>
+  </si>
+  <si>
     <t>6100749710</t>
   </si>
   <si>
@@ -3466,6 +3562,12 @@
     <t>Cedis Op Reynosa Cedes Mart</t>
   </si>
   <si>
+    <t>4000058538</t>
+  </si>
+  <si>
+    <t>CITY CLUB 1004 SALTILLO</t>
+  </si>
+  <si>
     <t>4000082837</t>
   </si>
   <si>
@@ -3538,18 +3640,18 @@
     <t>MI BA 1716 Tlajomulco</t>
   </si>
   <si>
+    <t>4000171688</t>
+  </si>
+  <si>
+    <t>MI BA 1411 Tuxpan</t>
+  </si>
+  <si>
     <t>4000171717</t>
   </si>
   <si>
     <t>MI BA 3046 Maravatio</t>
   </si>
   <si>
-    <t>4000176104</t>
-  </si>
-  <si>
-    <t>Super Che 0618 Champoton</t>
-  </si>
-  <si>
     <t>4000176876</t>
   </si>
   <si>
@@ -3724,6 +3826,12 @@
     <t>MI BA 3937 Villanueva</t>
   </si>
   <si>
+    <t>4000221066</t>
+  </si>
+  <si>
+    <t>MI BA 1961 Villa Victoria</t>
+  </si>
+  <si>
     <t>4000223295</t>
   </si>
   <si>
@@ -4069,6 +4177,12 @@
     <t>Walmart SV San Salvador</t>
   </si>
   <si>
+    <t>1000074387</t>
+  </si>
+  <si>
+    <t>MERCADO 578 COMITAN</t>
+  </si>
+  <si>
     <t>1000027999</t>
   </si>
   <si>
@@ -4405,12 +4519,6 @@
     <t>Alimentos de México a Compartir AMA</t>
   </si>
   <si>
-    <t>1000283941</t>
-  </si>
-  <si>
-    <t>PCZ Bodega D.A Morelia</t>
-  </si>
-  <si>
     <t>1000305043</t>
   </si>
   <si>
@@ -4439,12 +4547,6 @@
   </si>
   <si>
     <t>Super Chedraui 0272 Ixtepec Oaxaca</t>
-  </si>
-  <si>
-    <t>1000283942</t>
-  </si>
-  <si>
-    <t>PCZ Bodega D.A Quertaro</t>
   </si>
   <si>
     <t>1000035684</t>
@@ -5610,8 +5712,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FE902E-C647-4753-8DEE-8325E52C4C4C}">
-  <dimension ref="A1:D780"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF69FE1B-2183-4C10-93F4-88A9FA83361D}">
+  <dimension ref="A1:D797"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6124,29 +6226,29 @@
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>6</v>
@@ -6157,10 +6259,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>6</v>
@@ -6171,10 +6273,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>6</v>
@@ -6185,10 +6287,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>6</v>
@@ -6199,10 +6301,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>6</v>
@@ -6213,10 +6315,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>6</v>
@@ -6227,10 +6329,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>6</v>
@@ -6241,10 +6343,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>6</v>
@@ -6255,10 +6357,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
@@ -6269,10 +6371,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>6</v>
@@ -6283,16 +6385,16 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -6306,7 +6408,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -6320,21 +6422,21 @@
         <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -6348,7 +6450,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -6362,7 +6464,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -6474,7 +6576,7 @@
         <v>6</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -6502,7 +6604,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -6670,7 +6772,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -6712,7 +6814,7 @@
         <v>6</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -6796,7 +6898,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -6810,7 +6912,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -6824,7 +6926,7 @@
         <v>6</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -6838,7 +6940,7 @@
         <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -6852,7 +6954,7 @@
         <v>6</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -6880,7 +6982,7 @@
         <v>6</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -6894,7 +6996,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -6922,7 +7024,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -6936,7 +7038,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -6992,7 +7094,7 @@
         <v>6</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -7006,7 +7108,7 @@
         <v>6</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -7048,7 +7150,7 @@
         <v>6</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -7076,7 +7178,7 @@
         <v>6</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -7104,7 +7206,7 @@
         <v>6</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -7118,35 +7220,35 @@
         <v>6</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="C108" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -7160,7 +7262,7 @@
         <v>6</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -7174,7 +7276,7 @@
         <v>6</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -7188,15 +7290,15 @@
         <v>6</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>235</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>6</v>
@@ -7207,16 +7309,16 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -7286,7 +7388,7 @@
         <v>6</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -7314,7 +7416,7 @@
         <v>6</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -7370,7 +7472,7 @@
         <v>6</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -7398,7 +7500,7 @@
         <v>6</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -7412,7 +7514,7 @@
         <v>6</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -7426,7 +7528,7 @@
         <v>6</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -7440,49 +7542,49 @@
         <v>6</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>272</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="C131" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="C132" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="C133" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -7496,7 +7598,7 @@
         <v>6</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -7510,7 +7612,7 @@
         <v>6</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -7524,7 +7626,7 @@
         <v>6</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -7552,7 +7654,7 @@
         <v>6</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -7566,7 +7668,7 @@
         <v>6</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -7580,7 +7682,7 @@
         <v>6</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -7608,7 +7710,7 @@
         <v>6</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -7622,7 +7724,7 @@
         <v>6</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -7636,7 +7738,7 @@
         <v>6</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -7720,7 +7822,7 @@
         <v>6</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -7734,7 +7836,7 @@
         <v>6</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -7748,7 +7850,7 @@
         <v>6</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -7776,7 +7878,7 @@
         <v>6</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -7818,7 +7920,7 @@
         <v>6</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -7832,7 +7934,7 @@
         <v>6</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -7846,7 +7948,7 @@
         <v>6</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -7860,7 +7962,7 @@
         <v>6</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -7888,7 +7990,7 @@
         <v>6</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -7902,7 +8004,7 @@
         <v>6</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -7916,7 +8018,7 @@
         <v>6</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -7972,7 +8074,7 @@
         <v>6</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -8000,7 +8102,7 @@
         <v>6</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -8028,7 +8130,7 @@
         <v>6</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>272</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
@@ -8042,7 +8144,7 @@
         <v>6</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
@@ -8056,7 +8158,7 @@
         <v>6</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -8070,7 +8172,7 @@
         <v>6</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -8084,7 +8186,7 @@
         <v>6</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>7</v>
+        <v>278</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -8098,7 +8200,7 @@
         <v>6</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -8112,7 +8214,7 @@
         <v>6</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
@@ -8126,7 +8228,7 @@
         <v>6</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
@@ -8168,7 +8270,7 @@
         <v>6</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
@@ -8182,7 +8284,7 @@
         <v>6</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
@@ -8196,7 +8298,7 @@
         <v>6</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
@@ -8210,7 +8312,7 @@
         <v>6</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
@@ -8224,7 +8326,7 @@
         <v>6</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
@@ -8238,7 +8340,7 @@
         <v>6</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
@@ -8252,7 +8354,7 @@
         <v>6</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -8378,7 +8480,7 @@
         <v>6</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -8392,7 +8494,7 @@
         <v>6</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -8462,7 +8564,7 @@
         <v>6</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
@@ -8476,7 +8578,7 @@
         <v>6</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -8490,7 +8592,7 @@
         <v>6</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -8532,7 +8634,7 @@
         <v>6</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -8560,7 +8662,7 @@
         <v>6</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -8574,7 +8676,7 @@
         <v>6</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -8602,7 +8704,7 @@
         <v>6</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -8616,7 +8718,7 @@
         <v>6</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
@@ -8658,7 +8760,7 @@
         <v>6</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
@@ -8700,7 +8802,7 @@
         <v>6</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -8854,7 +8956,7 @@
         <v>6</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -8868,7 +8970,7 @@
         <v>6</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
@@ -8882,7 +8984,7 @@
         <v>6</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
@@ -8896,7 +8998,7 @@
         <v>6</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -8910,7 +9012,7 @@
         <v>6</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
@@ -8952,7 +9054,7 @@
         <v>6</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -9064,7 +9166,7 @@
         <v>6</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -9078,7 +9180,7 @@
         <v>6</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -9092,7 +9194,7 @@
         <v>6</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
@@ -9106,7 +9208,7 @@
         <v>6</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -9274,7 +9376,7 @@
         <v>6</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -9288,7 +9390,7 @@
         <v>6</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -9302,7 +9404,7 @@
         <v>6</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -9316,7 +9418,7 @@
         <v>6</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -9386,7 +9488,7 @@
         <v>6</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -9400,7 +9502,7 @@
         <v>6</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
@@ -9414,7 +9516,7 @@
         <v>6</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -9428,7 +9530,7 @@
         <v>6</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
@@ -9442,7 +9544,7 @@
         <v>6</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
@@ -9554,7 +9656,7 @@
         <v>6</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
@@ -9568,7 +9670,7 @@
         <v>6</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -9582,7 +9684,7 @@
         <v>6</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -9610,7 +9712,7 @@
         <v>6</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
@@ -9624,7 +9726,7 @@
         <v>6</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
@@ -9638,7 +9740,7 @@
         <v>6</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -9652,7 +9754,7 @@
         <v>6</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -9666,7 +9768,7 @@
         <v>6</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
@@ -9680,7 +9782,7 @@
         <v>6</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -9708,7 +9810,7 @@
         <v>6</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -9736,7 +9838,7 @@
         <v>6</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -9764,7 +9866,7 @@
         <v>6</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
@@ -9778,7 +9880,7 @@
         <v>6</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -9792,7 +9894,7 @@
         <v>6</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>235</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
@@ -9806,7 +9908,7 @@
         <v>6</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
@@ -9820,7 +9922,7 @@
         <v>6</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -9834,7 +9936,7 @@
         <v>6</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -9848,7 +9950,7 @@
         <v>6</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
@@ -9904,7 +10006,7 @@
         <v>6</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
@@ -9918,7 +10020,7 @@
         <v>6</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
@@ -9932,7 +10034,7 @@
         <v>6</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
@@ -9946,7 +10048,7 @@
         <v>6</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
@@ -9960,7 +10062,7 @@
         <v>6</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -9974,7 +10076,7 @@
         <v>6</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
@@ -10002,7 +10104,7 @@
         <v>6</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
@@ -10016,7 +10118,7 @@
         <v>6</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
@@ -10100,7 +10202,7 @@
         <v>6</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
@@ -10114,7 +10216,7 @@
         <v>6</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
@@ -10142,7 +10244,7 @@
         <v>6</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
@@ -10156,7 +10258,7 @@
         <v>6</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
@@ -10170,7 +10272,7 @@
         <v>6</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
@@ -10184,7 +10286,7 @@
         <v>6</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
@@ -10198,7 +10300,7 @@
         <v>6</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
@@ -10212,7 +10314,7 @@
         <v>6</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
@@ -10226,7 +10328,7 @@
         <v>6</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
@@ -10240,7 +10342,7 @@
         <v>6</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
@@ -10254,7 +10356,7 @@
         <v>6</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
@@ -10268,7 +10370,7 @@
         <v>6</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
@@ -10282,7 +10384,7 @@
         <v>6</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
@@ -10296,7 +10398,7 @@
         <v>6</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
@@ -10310,7 +10412,7 @@
         <v>6</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
@@ -10324,7 +10426,7 @@
         <v>6</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
@@ -10338,7 +10440,7 @@
         <v>6</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
@@ -10352,7 +10454,7 @@
         <v>6</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
@@ -10366,7 +10468,7 @@
         <v>6</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
@@ -10380,7 +10482,7 @@
         <v>6</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
@@ -10394,7 +10496,7 @@
         <v>6</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
@@ -10408,7 +10510,7 @@
         <v>6</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
@@ -10422,7 +10524,7 @@
         <v>6</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
@@ -10436,7 +10538,7 @@
         <v>6</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
@@ -10450,7 +10552,7 @@
         <v>6</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
@@ -10506,7 +10608,7 @@
         <v>6</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
@@ -10520,7 +10622,7 @@
         <v>6</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
@@ -10534,7 +10636,7 @@
         <v>6</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
@@ -10548,7 +10650,7 @@
         <v>6</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
@@ -10562,7 +10664,7 @@
         <v>6</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
@@ -10576,7 +10678,7 @@
         <v>6</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
@@ -10590,7 +10692,7 @@
         <v>6</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
@@ -10604,7 +10706,7 @@
         <v>6</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
@@ -10618,7 +10720,7 @@
         <v>6</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
@@ -10632,7 +10734,7 @@
         <v>6</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
@@ -10646,7 +10748,7 @@
         <v>6</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
@@ -10660,7 +10762,7 @@
         <v>6</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
@@ -10674,7 +10776,7 @@
         <v>6</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
@@ -10688,7 +10790,7 @@
         <v>6</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
@@ -10702,7 +10804,7 @@
         <v>6</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
@@ -10716,7 +10818,7 @@
         <v>6</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
@@ -10730,7 +10832,7 @@
         <v>6</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
@@ -10744,7 +10846,7 @@
         <v>6</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
@@ -10758,7 +10860,7 @@
         <v>6</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
@@ -10842,7 +10944,7 @@
         <v>6</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
@@ -10856,7 +10958,7 @@
         <v>6</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
@@ -10870,7 +10972,7 @@
         <v>6</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
@@ -10926,7 +11028,7 @@
         <v>6</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
@@ -10940,7 +11042,7 @@
         <v>6</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
@@ -11024,7 +11126,7 @@
         <v>6</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
@@ -11052,7 +11154,7 @@
         <v>6</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
@@ -11080,7 +11182,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
@@ -11094,7 +11196,7 @@
         <v>6</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
@@ -11108,7 +11210,7 @@
         <v>6</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
@@ -11122,7 +11224,7 @@
         <v>6</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
@@ -11136,7 +11238,7 @@
         <v>6</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
@@ -11150,7 +11252,7 @@
         <v>6</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
@@ -11164,7 +11266,7 @@
         <v>6</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
@@ -11178,7 +11280,7 @@
         <v>6</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
@@ -11220,7 +11322,7 @@
         <v>6</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>224</v>
+        <v>20</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
@@ -11234,7 +11336,7 @@
         <v>6</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
@@ -11248,7 +11350,7 @@
         <v>6</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
@@ -11262,7 +11364,7 @@
         <v>6</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
@@ -11276,7 +11378,7 @@
         <v>6</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
@@ -11290,7 +11392,7 @@
         <v>6</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
@@ -11304,7 +11406,7 @@
         <v>6</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
@@ -11332,7 +11434,7 @@
         <v>6</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
@@ -11346,7 +11448,7 @@
         <v>6</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
@@ -11402,7 +11504,7 @@
         <v>6</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.35">
@@ -11416,7 +11518,7 @@
         <v>6</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.35">
@@ -11430,7 +11532,7 @@
         <v>6</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
@@ -11444,7 +11546,7 @@
         <v>6</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.35">
@@ -11472,7 +11574,7 @@
         <v>6</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
@@ -11486,7 +11588,7 @@
         <v>6</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.35">
@@ -11542,7 +11644,7 @@
         <v>6</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.35">
@@ -11570,7 +11672,7 @@
         <v>6</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.35">
@@ -11584,7 +11686,7 @@
         <v>6</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.35">
@@ -11598,7 +11700,7 @@
         <v>6</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
@@ -11612,7 +11714,7 @@
         <v>6</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.35">
@@ -11626,7 +11728,7 @@
         <v>6</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.35">
@@ -11640,7 +11742,7 @@
         <v>6</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
@@ -11654,7 +11756,7 @@
         <v>6</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.35">
@@ -11668,7 +11770,7 @@
         <v>6</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.35">
@@ -11682,7 +11784,7 @@
         <v>6</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
@@ -11696,7 +11798,7 @@
         <v>6</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.35">
@@ -11710,7 +11812,7 @@
         <v>6</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.35">
@@ -11724,7 +11826,7 @@
         <v>6</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
@@ -11738,7 +11840,7 @@
         <v>6</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.35">
@@ -11752,7 +11854,7 @@
         <v>6</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.35">
@@ -11766,7 +11868,7 @@
         <v>6</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
@@ -11780,7 +11882,7 @@
         <v>6</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.35">
@@ -11794,7 +11896,7 @@
         <v>6</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.35">
@@ -11808,7 +11910,7 @@
         <v>6</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
@@ -11822,7 +11924,7 @@
         <v>6</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.35">
@@ -11836,7 +11938,7 @@
         <v>6</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.35">
@@ -11850,7 +11952,7 @@
         <v>6</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
@@ -11864,7 +11966,7 @@
         <v>6</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.35">
@@ -11878,7 +11980,7 @@
         <v>6</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.35">
@@ -11892,7 +11994,7 @@
         <v>6</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
@@ -11906,7 +12008,7 @@
         <v>6</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.35">
@@ -11920,7 +12022,7 @@
         <v>6</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.35">
@@ -11934,7 +12036,7 @@
         <v>6</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
@@ -11948,7 +12050,7 @@
         <v>6</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.35">
@@ -11962,7 +12064,7 @@
         <v>6</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.35">
@@ -11976,7 +12078,7 @@
         <v>6</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
@@ -11990,7 +12092,7 @@
         <v>6</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.35">
@@ -12004,7 +12106,7 @@
         <v>6</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.35">
@@ -12060,7 +12162,7 @@
         <v>6</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
@@ -12074,7 +12176,7 @@
         <v>6</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.35">
@@ -12088,7 +12190,7 @@
         <v>6</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.35">
@@ -12102,7 +12204,7 @@
         <v>6</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
@@ -12116,7 +12218,7 @@
         <v>6</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.35">
@@ -12130,7 +12232,7 @@
         <v>6</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.35">
@@ -12144,7 +12246,7 @@
         <v>6</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
@@ -12158,7 +12260,7 @@
         <v>6</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.35">
@@ -12172,7 +12274,7 @@
         <v>6</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.35">
@@ -12186,7 +12288,7 @@
         <v>6</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
@@ -12214,7 +12316,7 @@
         <v>6</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.35">
@@ -12228,7 +12330,7 @@
         <v>6</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
@@ -12242,7 +12344,7 @@
         <v>6</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.35">
@@ -12256,7 +12358,7 @@
         <v>6</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.35">
@@ -12270,7 +12372,7 @@
         <v>6</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
@@ -12284,7 +12386,7 @@
         <v>6</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.35">
@@ -12298,7 +12400,7 @@
         <v>6</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.35">
@@ -12326,7 +12428,7 @@
         <v>6</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.35">
@@ -12340,7 +12442,7 @@
         <v>6</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.35">
@@ -12354,7 +12456,7 @@
         <v>6</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
@@ -12368,7 +12470,7 @@
         <v>6</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.35">
@@ -12396,7 +12498,7 @@
         <v>6</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
@@ -12410,7 +12512,7 @@
         <v>6</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.35">
@@ -12424,7 +12526,7 @@
         <v>6</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.35">
@@ -12452,7 +12554,7 @@
         <v>6</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.35">
@@ -12466,7 +12568,7 @@
         <v>6</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>224</v>
+        <v>17</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.35">
@@ -12480,7 +12582,7 @@
         <v>6</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
@@ -12494,7 +12596,7 @@
         <v>6</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.35">
@@ -12508,7 +12610,7 @@
         <v>6</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>272</v>
+        <v>14</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.35">
@@ -12522,7 +12624,7 @@
         <v>6</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
@@ -12536,7 +12638,7 @@
         <v>6</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.35">
@@ -12550,7 +12652,7 @@
         <v>6</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.35">
@@ -12662,7 +12764,7 @@
         <v>6</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.35">
@@ -12676,7 +12778,7 @@
         <v>6</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.35">
@@ -12690,7 +12792,7 @@
         <v>6</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.35">
@@ -12704,7 +12806,7 @@
         <v>6</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>27</v>
+        <v>278</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.35">
@@ -12774,7 +12876,7 @@
         <v>6</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
@@ -12788,7 +12890,7 @@
         <v>6</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.35">
@@ -12802,7 +12904,7 @@
         <v>6</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.35">
@@ -12816,7 +12918,7 @@
         <v>6</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
@@ -12830,7 +12932,7 @@
         <v>6</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.35">
@@ -12844,7 +12946,7 @@
         <v>6</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.35">
@@ -12858,7 +12960,7 @@
         <v>6</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
@@ -12872,7 +12974,7 @@
         <v>6</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.35">
@@ -12886,7 +12988,7 @@
         <v>6</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.35">
@@ -12914,7 +13016,7 @@
         <v>6</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.35">
@@ -12928,7 +13030,7 @@
         <v>6</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.35">
@@ -12956,7 +13058,7 @@
         <v>6</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.35">
@@ -12970,7 +13072,7 @@
         <v>6</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.35">
@@ -12984,7 +13086,7 @@
         <v>6</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
@@ -12998,7 +13100,7 @@
         <v>6</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.35">
@@ -13012,7 +13114,7 @@
         <v>6</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.35">
@@ -13026,7 +13128,7 @@
         <v>6</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
@@ -13040,7 +13142,7 @@
         <v>6</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.35">
@@ -13054,7 +13156,7 @@
         <v>6</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.35">
@@ -13068,7 +13170,7 @@
         <v>6</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
@@ -13082,7 +13184,7 @@
         <v>6</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.35">
@@ -13096,7 +13198,7 @@
         <v>6</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.35">
@@ -13110,7 +13212,7 @@
         <v>6</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.35">
@@ -13124,7 +13226,7 @@
         <v>6</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.35">
@@ -13138,7 +13240,7 @@
         <v>6</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.35">
@@ -13152,7 +13254,7 @@
         <v>6</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
@@ -13166,7 +13268,7 @@
         <v>6</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.35">
@@ -13180,7 +13282,7 @@
         <v>6</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.35">
@@ -13194,7 +13296,7 @@
         <v>6</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
@@ -13208,7 +13310,7 @@
         <v>6</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.35">
@@ -13250,7 +13352,7 @@
         <v>6</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.35">
@@ -13264,7 +13366,7 @@
         <v>6</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.35">
@@ -13362,7 +13464,7 @@
         <v>6</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
@@ -13376,7 +13478,7 @@
         <v>6</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.35">
@@ -13544,7 +13646,7 @@
         <v>6</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.35">
@@ -13558,7 +13660,7 @@
         <v>6</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.35">
@@ -13572,7 +13674,7 @@
         <v>6</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
@@ -13586,7 +13688,7 @@
         <v>6</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.35">
@@ -13600,7 +13702,7 @@
         <v>6</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.35">
@@ -13614,7 +13716,7 @@
         <v>6</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
@@ -13628,7 +13730,7 @@
         <v>6</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.35">
@@ -13642,7 +13744,7 @@
         <v>6</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.35">
@@ -13656,7 +13758,7 @@
         <v>6</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
@@ -13670,7 +13772,7 @@
         <v>6</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.35">
@@ -13684,7 +13786,7 @@
         <v>6</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.35">
@@ -13698,7 +13800,7 @@
         <v>6</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
@@ -13712,7 +13814,7 @@
         <v>6</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.35">
@@ -13726,7 +13828,7 @@
         <v>6</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.35">
@@ -13740,7 +13842,7 @@
         <v>6</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
@@ -13754,7 +13856,7 @@
         <v>6</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
@@ -13768,7 +13870,7 @@
         <v>6</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.35">
@@ -13782,7 +13884,7 @@
         <v>6</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.35">
@@ -13796,7 +13898,7 @@
         <v>6</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.35">
@@ -13810,7 +13912,7 @@
         <v>6</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.35">
@@ -13880,7 +13982,7 @@
         <v>6</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.35">
@@ -13950,7 +14052,7 @@
         <v>6</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.35">
@@ -13964,7 +14066,7 @@
         <v>6</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.35">
@@ -13978,7 +14080,7 @@
         <v>6</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.35">
@@ -13992,7 +14094,7 @@
         <v>6</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.35">
@@ -14048,7 +14150,7 @@
         <v>6</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.35">
@@ -14118,7 +14220,7 @@
         <v>6</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.35">
@@ -14188,7 +14290,7 @@
         <v>6</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.35">
@@ -14202,7 +14304,7 @@
         <v>6</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.35">
@@ -14216,7 +14318,7 @@
         <v>6</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.35">
@@ -14230,7 +14332,7 @@
         <v>6</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.35">
@@ -14286,7 +14388,7 @@
         <v>6</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.35">
@@ -14552,7 +14654,7 @@
         <v>6</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.35">
@@ -14566,7 +14668,7 @@
         <v>6</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.35">
@@ -14580,7 +14682,7 @@
         <v>6</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.35">
@@ -14594,7 +14696,7 @@
         <v>6</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.35">
@@ -14636,7 +14738,7 @@
         <v>6</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.35">
@@ -14650,7 +14752,7 @@
         <v>6</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.35">
@@ -14678,7 +14780,7 @@
         <v>6</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.35">
@@ -14804,7 +14906,7 @@
         <v>6</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.35">
@@ -14818,7 +14920,7 @@
         <v>6</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.35">
@@ -14832,7 +14934,7 @@
         <v>6</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.35">
@@ -14846,7 +14948,7 @@
         <v>6</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.35">
@@ -14860,7 +14962,7 @@
         <v>6</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.35">
@@ -14888,7 +14990,7 @@
         <v>6</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.35">
@@ -14902,7 +15004,7 @@
         <v>6</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.35">
@@ -14916,7 +15018,7 @@
         <v>6</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.35">
@@ -14930,43 +15032,43 @@
         <v>6</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>1343</v>
+        <v>80</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A666" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B666" s="2" t="s">
         <v>1344</v>
       </c>
-      <c r="B666" s="2" t="s">
-        <v>1345</v>
-      </c>
       <c r="C666" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>1343</v>
+        <v>27</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A667" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B667" s="2" t="s">
         <v>1346</v>
       </c>
-      <c r="B667" s="2" t="s">
-        <v>1347</v>
-      </c>
       <c r="C667" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>1343</v>
+        <v>27</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A668" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B668" s="2" t="s">
         <v>1348</v>
-      </c>
-      <c r="B668" s="2" t="s">
-        <v>1349</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>6</v>
@@ -14977,268 +15079,268 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A669" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B669" s="2" t="s">
         <v>1350</v>
       </c>
-      <c r="B669" s="2" t="s">
-        <v>1351</v>
-      </c>
       <c r="C669" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A670" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B670" s="2" t="s">
         <v>1352</v>
       </c>
-      <c r="B670" s="2" t="s">
-        <v>1353</v>
-      </c>
       <c r="C670" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A671" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B671" s="2" t="s">
         <v>1354</v>
       </c>
-      <c r="B671" s="2" t="s">
-        <v>1355</v>
-      </c>
       <c r="C671" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A672" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B672" s="2" t="s">
         <v>1356</v>
       </c>
-      <c r="B672" s="2" t="s">
-        <v>1357</v>
-      </c>
       <c r="C672" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A673" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B673" s="2" t="s">
         <v>1358</v>
       </c>
-      <c r="B673" s="2" t="s">
-        <v>1359</v>
-      </c>
       <c r="C673" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A674" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B674" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="B674" s="2" t="s">
-        <v>1361</v>
-      </c>
       <c r="C674" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A675" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B675" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="B675" s="2" t="s">
-        <v>1363</v>
-      </c>
       <c r="C675" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A676" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B676" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="B676" s="2" t="s">
-        <v>1365</v>
-      </c>
       <c r="C676" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A677" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B677" s="2" t="s">
         <v>1366</v>
       </c>
-      <c r="B677" s="2" t="s">
-        <v>1367</v>
-      </c>
       <c r="C677" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A678" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B678" s="2" t="s">
         <v>1368</v>
       </c>
-      <c r="B678" s="2" t="s">
-        <v>1369</v>
-      </c>
       <c r="C678" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A679" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B679" s="2" t="s">
         <v>1370</v>
       </c>
-      <c r="B679" s="2" t="s">
-        <v>1371</v>
-      </c>
       <c r="C679" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A680" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B680" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="B680" s="2" t="s">
-        <v>1373</v>
-      </c>
       <c r="C680" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A681" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B681" s="2" t="s">
         <v>1374</v>
       </c>
-      <c r="B681" s="2" t="s">
-        <v>1375</v>
-      </c>
       <c r="C681" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A682" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B682" s="2" t="s">
         <v>1376</v>
       </c>
-      <c r="B682" s="2" t="s">
-        <v>1377</v>
-      </c>
       <c r="C682" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A683" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B683" s="2" t="s">
         <v>1378</v>
       </c>
-      <c r="B683" s="2" t="s">
+      <c r="C683" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D683" s="2" t="s">
         <v>1379</v>
-      </c>
-      <c r="C683" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D683" s="2" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A684" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B684" s="2" t="s">
         <v>1381</v>
       </c>
-      <c r="B684" s="2" t="s">
-        <v>1382</v>
-      </c>
       <c r="C684" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A685" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B685" s="2" t="s">
         <v>1383</v>
       </c>
-      <c r="B685" s="2" t="s">
-        <v>1384</v>
-      </c>
       <c r="C685" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A686" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B686" s="2" t="s">
         <v>1385</v>
       </c>
-      <c r="B686" s="2" t="s">
-        <v>1386</v>
-      </c>
       <c r="C686" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>1380</v>
+        <v>7</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A687" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B687" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="B687" s="2" t="s">
-        <v>812</v>
-      </c>
       <c r="C687" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>1380</v>
+        <v>27</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.35">
@@ -15252,7 +15354,7 @@
         <v>6</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>1380</v>
+        <v>14</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.35">
@@ -15266,7 +15368,7 @@
         <v>6</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>1380</v>
+        <v>14</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.35">
@@ -15274,55 +15376,55 @@
         <v>1392</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>898</v>
+        <v>1393</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>1380</v>
+        <v>14</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A691" s="2" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="692" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A692" s="2" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C692" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D692" s="2" t="s">
-        <v>1380</v>
+        <v>80</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A693" s="2" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D693" s="2" t="s">
-        <v>1399</v>
+        <v>14</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.35">
@@ -15336,7 +15438,7 @@
         <v>6</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>1380</v>
+        <v>14</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.35">
@@ -15350,7 +15452,7 @@
         <v>6</v>
       </c>
       <c r="D695" s="2" t="s">
-        <v>1380</v>
+        <v>14</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.35">
@@ -15364,7 +15466,7 @@
         <v>6</v>
       </c>
       <c r="D696" s="2" t="s">
-        <v>1399</v>
+        <v>7</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.35">
@@ -15378,7 +15480,7 @@
         <v>6</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>1399</v>
+        <v>27</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.35">
@@ -15392,7 +15494,7 @@
         <v>6</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>1380</v>
+        <v>14</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.35">
@@ -15406,7 +15508,7 @@
         <v>6</v>
       </c>
       <c r="D699" s="2" t="s">
-        <v>1380</v>
+        <v>20</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.35">
@@ -15420,7 +15522,7 @@
         <v>6</v>
       </c>
       <c r="D700" s="2" t="s">
-        <v>1380</v>
+        <v>7</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.35">
@@ -15434,7 +15536,7 @@
         <v>6</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>1399</v>
+        <v>7</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.35">
@@ -15448,66 +15550,66 @@
         <v>6</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>1380</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A703" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C703" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D703" s="2" t="s">
         <v>1418</v>
-      </c>
-      <c r="B703" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C703" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D703" s="2" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A704" s="2" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C704" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>1380</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A705" s="2" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C705" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>1380</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A706" s="2" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>1425</v>
+        <v>838</v>
       </c>
       <c r="C706" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D706" s="2" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="707" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A707" s="2" t="s">
         <v>1426</v>
       </c>
@@ -15518,7 +15620,7 @@
         <v>6</v>
       </c>
       <c r="D707" s="2" t="s">
-        <v>1399</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.35">
@@ -15532,7 +15634,7 @@
         <v>6</v>
       </c>
       <c r="D708" s="2" t="s">
-        <v>1380</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.35">
@@ -15540,55 +15642,55 @@
         <v>1430</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1431</v>
+        <v>924</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D709" s="2" t="s">
-        <v>1399</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A710" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B710" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="B710" s="2" t="s">
+      <c r="C710" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D710" s="2" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A711" s="2" t="s">
         <v>1433</v>
       </c>
-      <c r="C710" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D710" s="2" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A711" s="2" t="s">
+      <c r="B711" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="B711" s="2" t="s">
-        <v>1435</v>
-      </c>
       <c r="C711" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D711" s="2" t="s">
-        <v>1399</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A712" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B712" s="2" t="s">
         <v>1436</v>
       </c>
-      <c r="B712" s="2" t="s">
+      <c r="C712" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D712" s="2" t="s">
         <v>1437</v>
-      </c>
-      <c r="C712" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D712" s="2" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.35">
@@ -15602,7 +15704,7 @@
         <v>6</v>
       </c>
       <c r="D713" s="2" t="s">
-        <v>1399</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.35">
@@ -15616,7 +15718,7 @@
         <v>6</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>1399</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.35">
@@ -15630,7 +15732,7 @@
         <v>6</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>20</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.35">
@@ -15644,7 +15746,7 @@
         <v>6</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>1343</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.35">
@@ -15658,7 +15760,7 @@
         <v>6</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>20</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.35">
@@ -15672,7 +15774,7 @@
         <v>6</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>109</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.35">
@@ -15686,7 +15788,7 @@
         <v>6</v>
       </c>
       <c r="D719" s="2" t="s">
-        <v>14</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.35">
@@ -15700,7 +15802,7 @@
         <v>6</v>
       </c>
       <c r="D720" s="2" t="s">
-        <v>27</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.35">
@@ -15714,7 +15816,7 @@
         <v>6</v>
       </c>
       <c r="D721" s="2" t="s">
-        <v>14</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.35">
@@ -15728,7 +15830,7 @@
         <v>6</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>104</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.35">
@@ -15742,7 +15844,7 @@
         <v>6</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>1380</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.35">
@@ -15756,7 +15858,7 @@
         <v>6</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>104</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.35">
@@ -15770,10 +15872,10 @@
         <v>6</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A726" s="2" t="s">
         <v>1464</v>
       </c>
@@ -15784,7 +15886,7 @@
         <v>6</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>104</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.35">
@@ -15798,7 +15900,7 @@
         <v>6</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>14</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.35">
@@ -15812,7 +15914,7 @@
         <v>6</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>14</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.35">
@@ -15826,7 +15928,7 @@
         <v>6</v>
       </c>
       <c r="D729" s="2" t="s">
-        <v>20</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.35">
@@ -15840,7 +15942,7 @@
         <v>6</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>104</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.35">
@@ -15854,7 +15956,7 @@
         <v>6</v>
       </c>
       <c r="D731" s="2" t="s">
-        <v>14</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.35">
@@ -15868,7 +15970,7 @@
         <v>6</v>
       </c>
       <c r="D732" s="2" t="s">
-        <v>7</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.35">
@@ -15882,7 +15984,7 @@
         <v>6</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>7</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.35">
@@ -15896,7 +15998,7 @@
         <v>6</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.35">
@@ -15910,7 +16012,7 @@
         <v>6</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>104</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.35">
@@ -15924,7 +16026,7 @@
         <v>6</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.35">
@@ -15938,7 +16040,7 @@
         <v>6</v>
       </c>
       <c r="D737" s="2" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.35">
@@ -15952,7 +16054,7 @@
         <v>6</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.35">
@@ -15966,7 +16068,7 @@
         <v>6</v>
       </c>
       <c r="D739" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.35">
@@ -15994,7 +16096,7 @@
         <v>6</v>
       </c>
       <c r="D741" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.35">
@@ -16008,7 +16110,7 @@
         <v>6</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>14</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.35">
@@ -16022,7 +16124,7 @@
         <v>6</v>
       </c>
       <c r="D743" s="2" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.35">
@@ -16036,7 +16138,7 @@
         <v>6</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.35">
@@ -16064,7 +16166,7 @@
         <v>6</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.35">
@@ -16078,7 +16180,7 @@
         <v>6</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.35">
@@ -16106,7 +16208,7 @@
         <v>6</v>
       </c>
       <c r="D749" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.35">
@@ -16120,7 +16222,7 @@
         <v>6</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>1380</v>
+        <v>7</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.35">
@@ -16134,7 +16236,7 @@
         <v>6</v>
       </c>
       <c r="D751" s="2" t="s">
-        <v>1380</v>
+        <v>7</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.35">
@@ -16148,7 +16250,7 @@
         <v>6</v>
       </c>
       <c r="D752" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.35">
@@ -16162,7 +16264,7 @@
         <v>6</v>
       </c>
       <c r="D753" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.35">
@@ -16176,7 +16278,7 @@
         <v>6</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.35">
@@ -16190,7 +16292,7 @@
         <v>6</v>
       </c>
       <c r="D755" s="2" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.35">
@@ -16204,7 +16306,7 @@
         <v>6</v>
       </c>
       <c r="D756" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.35">
@@ -16232,7 +16334,7 @@
         <v>6</v>
       </c>
       <c r="D758" s="2" t="s">
-        <v>1399</v>
+        <v>20</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.35">
@@ -16246,7 +16348,7 @@
         <v>6</v>
       </c>
       <c r="D759" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.35">
@@ -16260,7 +16362,7 @@
         <v>6</v>
       </c>
       <c r="D760" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.35">
@@ -16274,7 +16376,7 @@
         <v>6</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.35">
@@ -16288,7 +16390,7 @@
         <v>6</v>
       </c>
       <c r="D762" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.35">
@@ -16316,7 +16418,7 @@
         <v>6</v>
       </c>
       <c r="D764" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.35">
@@ -16344,7 +16446,7 @@
         <v>6</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.35">
@@ -16358,7 +16460,7 @@
         <v>6</v>
       </c>
       <c r="D767" s="2" t="s">
-        <v>27</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.35">
@@ -16372,7 +16474,7 @@
         <v>6</v>
       </c>
       <c r="D768" s="2" t="s">
-        <v>27</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.35">
@@ -16386,7 +16488,7 @@
         <v>6</v>
       </c>
       <c r="D769" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.35">
@@ -16400,7 +16502,7 @@
         <v>6</v>
       </c>
       <c r="D770" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.35">
@@ -16414,7 +16516,7 @@
         <v>6</v>
       </c>
       <c r="D771" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.35">
@@ -16428,7 +16530,7 @@
         <v>6</v>
       </c>
       <c r="D772" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.35">
@@ -16442,7 +16544,7 @@
         <v>6</v>
       </c>
       <c r="D773" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.35">
@@ -16456,7 +16558,7 @@
         <v>6</v>
       </c>
       <c r="D774" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.35">
@@ -16470,7 +16572,7 @@
         <v>6</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>104</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.35">
@@ -16498,7 +16600,7 @@
         <v>6</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.35">
@@ -16512,7 +16614,7 @@
         <v>6</v>
       </c>
       <c r="D778" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.35">
@@ -16543,8 +16645,246 @@
         <v>27</v>
       </c>
     </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A781" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B781" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C781" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D781" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A782" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C782" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D782" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A783" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B783" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C783" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D783" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A784" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C784" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D784" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A785" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B785" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C785" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D785" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A786" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C786" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D786" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A787" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C787" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D787" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A788" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B788" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C788" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D788" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A789" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C789" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D789" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A790" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B790" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C790" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D790" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A791" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C791" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D791" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A792" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B792" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C792" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D792" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A793" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C793" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D793" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A794" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B794" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C794" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D794" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A795" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C795" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D795" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A796" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B796" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C796" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D796" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A797" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B797" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C797" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D797" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D780" xr:uid="{287D1CB5-DFE9-4D1C-800E-3391AF9526AB}"/>
+  <autoFilter ref="A1:D797" xr:uid="{43FAA2AE-7AB0-4578-9B53-0D6E2AECC800}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Incontactables.xlsx
+++ b/Incontactables.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melissa Florian\Documents\Cargas CHEP\BASE PLATAFORMA\ARCHIVOS CHEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56B7E407-B845-4955-9F6A-F685EB5878BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57BF669-292B-4367-A2BB-B4BBFAB52B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F9A95A30-1204-454D-9AD4-72CA709CD5B5}"/>
+    <workbookView xWindow="43710" yWindow="2230" windowWidth="28800" windowHeight="15370" xr2:uid="{F9A95A30-1204-454D-9AD4-72CA709CD5B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$894</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="1803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3576" uniqueCount="1801">
   <si>
     <t>Delv Ship-To Party</t>
   </si>
@@ -2715,12 +2718,6 @@
   </si>
   <si>
     <t>Dimuflo SA de CV</t>
-  </si>
-  <si>
-    <t>4000308422</t>
-  </si>
-  <si>
-    <t>Chedraui 169 Xoxocotlan</t>
   </si>
   <si>
     <t>4000309744</t>
@@ -5816,10 +5813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE34171-B02B-473B-8EA7-74B9D28253F0}">
-  <dimension ref="A1:D895"/>
+  <dimension ref="A1:D894"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A871" workbookViewId="0">
+      <selection activeCell="B876" sqref="B876"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12001,7 +11998,7 @@
         <v>6</v>
       </c>
       <c r="D441" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.35">
@@ -12043,7 +12040,7 @@
         <v>6</v>
       </c>
       <c r="D444" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.35">
@@ -12071,7 +12068,7 @@
         <v>6</v>
       </c>
       <c r="D446" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.35">
@@ -12155,7 +12152,7 @@
         <v>6</v>
       </c>
       <c r="D452" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.35">
@@ -12169,7 +12166,7 @@
         <v>6</v>
       </c>
       <c r="D453" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.35">
@@ -12183,7 +12180,7 @@
         <v>6</v>
       </c>
       <c r="D454" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
@@ -12211,7 +12208,7 @@
         <v>6</v>
       </c>
       <c r="D456" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.35">
@@ -12225,7 +12222,7 @@
         <v>6</v>
       </c>
       <c r="D457" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.35">
@@ -12239,7 +12236,7 @@
         <v>6</v>
       </c>
       <c r="D458" t="s">
-        <v>133</v>
+        <v>260</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.35">
@@ -12253,7 +12250,7 @@
         <v>6</v>
       </c>
       <c r="D459" t="s">
-        <v>260</v>
+        <v>35</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.35">
@@ -12281,7 +12278,7 @@
         <v>6</v>
       </c>
       <c r="D461" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.35">
@@ -12295,7 +12292,7 @@
         <v>6</v>
       </c>
       <c r="D462" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.35">
@@ -12309,7 +12306,7 @@
         <v>6</v>
       </c>
       <c r="D463" t="s">
-        <v>7</v>
+        <v>260</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
@@ -12337,7 +12334,7 @@
         <v>6</v>
       </c>
       <c r="D465" t="s">
-        <v>260</v>
+        <v>7</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.35">
@@ -12351,7 +12348,7 @@
         <v>6</v>
       </c>
       <c r="D466" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
@@ -12365,7 +12362,7 @@
         <v>6</v>
       </c>
       <c r="D467" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.35">
@@ -12393,7 +12390,7 @@
         <v>6</v>
       </c>
       <c r="D469" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
@@ -12407,7 +12404,7 @@
         <v>6</v>
       </c>
       <c r="D470" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.35">
@@ -12463,7 +12460,7 @@
         <v>6</v>
       </c>
       <c r="D474" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.35">
@@ -12477,7 +12474,7 @@
         <v>6</v>
       </c>
       <c r="D475" t="s">
-        <v>260</v>
+        <v>35</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
@@ -12491,7 +12488,7 @@
         <v>6</v>
       </c>
       <c r="D476" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.35">
@@ -12519,7 +12516,7 @@
         <v>6</v>
       </c>
       <c r="D478" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.35">
@@ -12575,7 +12572,7 @@
         <v>6</v>
       </c>
       <c r="D482" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.35">
@@ -12589,7 +12586,7 @@
         <v>6</v>
       </c>
       <c r="D483" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.35">
@@ -12743,7 +12740,7 @@
         <v>6</v>
       </c>
       <c r="D494" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.35">
@@ -12757,7 +12754,7 @@
         <v>6</v>
       </c>
       <c r="D495" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.35">
@@ -12799,7 +12796,7 @@
         <v>6</v>
       </c>
       <c r="D498" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.35">
@@ -12855,7 +12852,7 @@
         <v>6</v>
       </c>
       <c r="D502" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
@@ -12869,7 +12866,7 @@
         <v>6</v>
       </c>
       <c r="D503" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.35">
@@ -12939,7 +12936,7 @@
         <v>6</v>
       </c>
       <c r="D508" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.35">
@@ -12981,7 +12978,7 @@
         <v>6</v>
       </c>
       <c r="D511" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
@@ -12995,7 +12992,7 @@
         <v>6</v>
       </c>
       <c r="D512" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.35">
@@ -13023,7 +13020,7 @@
         <v>6</v>
       </c>
       <c r="D514" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
@@ -13037,7 +13034,7 @@
         <v>6</v>
       </c>
       <c r="D515" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.35">
@@ -13051,7 +13048,7 @@
         <v>6</v>
       </c>
       <c r="D516" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.35">
@@ -13079,7 +13076,7 @@
         <v>6</v>
       </c>
       <c r="D518" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.35">
@@ -13093,7 +13090,7 @@
         <v>6</v>
       </c>
       <c r="D519" t="s">
-        <v>260</v>
+        <v>35</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.35">
@@ -13135,7 +13132,7 @@
         <v>6</v>
       </c>
       <c r="D522" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.35">
@@ -13149,7 +13146,7 @@
         <v>6</v>
       </c>
       <c r="D523" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
@@ -13163,7 +13160,7 @@
         <v>6</v>
       </c>
       <c r="D524" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.35">
@@ -13177,7 +13174,7 @@
         <v>6</v>
       </c>
       <c r="D525" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.35">
@@ -13247,7 +13244,7 @@
         <v>6</v>
       </c>
       <c r="D530" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.35">
@@ -13261,7 +13258,7 @@
         <v>6</v>
       </c>
       <c r="D531" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.35">
@@ -13275,7 +13272,7 @@
         <v>6</v>
       </c>
       <c r="D532" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
@@ -13289,7 +13286,7 @@
         <v>6</v>
       </c>
       <c r="D533" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.35">
@@ -13345,7 +13342,7 @@
         <v>6</v>
       </c>
       <c r="D537" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.35">
@@ -13359,7 +13356,7 @@
         <v>6</v>
       </c>
       <c r="D538" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
@@ -13373,7 +13370,7 @@
         <v>6</v>
       </c>
       <c r="D539" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.35">
@@ -13387,7 +13384,7 @@
         <v>6</v>
       </c>
       <c r="D540" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.35">
@@ -13401,7 +13398,7 @@
         <v>6</v>
       </c>
       <c r="D541" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
@@ -13415,7 +13412,7 @@
         <v>6</v>
       </c>
       <c r="D542" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.35">
@@ -13429,7 +13426,7 @@
         <v>6</v>
       </c>
       <c r="D543" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.35">
@@ -13443,7 +13440,7 @@
         <v>6</v>
       </c>
       <c r="D544" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
@@ -13457,7 +13454,7 @@
         <v>6</v>
       </c>
       <c r="D545" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.35">
@@ -13471,7 +13468,7 @@
         <v>6</v>
       </c>
       <c r="D546" t="s">
-        <v>260</v>
+        <v>35</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.35">
@@ -13485,7 +13482,7 @@
         <v>6</v>
       </c>
       <c r="D547" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.35">
@@ -13499,7 +13496,7 @@
         <v>6</v>
       </c>
       <c r="D548" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.35">
@@ -13513,7 +13510,7 @@
         <v>6</v>
       </c>
       <c r="D549" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.35">
@@ -13527,7 +13524,7 @@
         <v>6</v>
       </c>
       <c r="D550" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
@@ -13541,7 +13538,7 @@
         <v>6</v>
       </c>
       <c r="D551" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.35">
@@ -13555,7 +13552,7 @@
         <v>6</v>
       </c>
       <c r="D552" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.35">
@@ -13569,7 +13566,7 @@
         <v>6</v>
       </c>
       <c r="D553" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
@@ -13611,7 +13608,7 @@
         <v>6</v>
       </c>
       <c r="D556" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
@@ -13625,7 +13622,7 @@
         <v>6</v>
       </c>
       <c r="D557" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.35">
@@ -13653,7 +13650,7 @@
         <v>6</v>
       </c>
       <c r="D559" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
@@ -13667,7 +13664,7 @@
         <v>6</v>
       </c>
       <c r="D560" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.35">
@@ -13765,7 +13762,7 @@
         <v>6</v>
       </c>
       <c r="D567" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.35">
@@ -13779,7 +13776,7 @@
         <v>6</v>
       </c>
       <c r="D568" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
@@ -13793,7 +13790,7 @@
         <v>6</v>
       </c>
       <c r="D569" t="s">
-        <v>7</v>
+        <v>316</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.35">
@@ -13807,7 +13804,7 @@
         <v>6</v>
       </c>
       <c r="D570" t="s">
-        <v>316</v>
+        <v>35</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.35">
@@ -14129,7 +14126,7 @@
         <v>6</v>
       </c>
       <c r="D593" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.35">
@@ -14171,7 +14168,7 @@
         <v>6</v>
       </c>
       <c r="D596" t="s">
-        <v>98</v>
+        <v>260</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.35">
@@ -14185,7 +14182,7 @@
         <v>6</v>
       </c>
       <c r="D597" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.35">
@@ -14199,7 +14196,7 @@
         <v>6</v>
       </c>
       <c r="D598" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.35">
@@ -14241,7 +14238,7 @@
         <v>6</v>
       </c>
       <c r="D601" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.35">
@@ -14269,7 +14266,7 @@
         <v>6</v>
       </c>
       <c r="D603" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.35">
@@ -14283,7 +14280,7 @@
         <v>6</v>
       </c>
       <c r="D604" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.35">
@@ -14297,7 +14294,7 @@
         <v>6</v>
       </c>
       <c r="D605" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.35">
@@ -14325,7 +14322,7 @@
         <v>6</v>
       </c>
       <c r="D607" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.35">
@@ -14339,7 +14336,7 @@
         <v>6</v>
       </c>
       <c r="D608" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.35">
@@ -14353,7 +14350,7 @@
         <v>6</v>
       </c>
       <c r="D609" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.35">
@@ -14367,7 +14364,7 @@
         <v>6</v>
       </c>
       <c r="D610" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.35">
@@ -14409,7 +14406,7 @@
         <v>6</v>
       </c>
       <c r="D613" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.35">
@@ -14423,7 +14420,7 @@
         <v>6</v>
       </c>
       <c r="D614" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.35">
@@ -14465,7 +14462,7 @@
         <v>6</v>
       </c>
       <c r="D617" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.35">
@@ -14493,7 +14490,7 @@
         <v>6</v>
       </c>
       <c r="D619" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.35">
@@ -14885,7 +14882,7 @@
         <v>6</v>
       </c>
       <c r="D647" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.35">
@@ -14913,7 +14910,7 @@
         <v>6</v>
       </c>
       <c r="D649" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.35">
@@ -14941,7 +14938,7 @@
         <v>6</v>
       </c>
       <c r="D651" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.35">
@@ -14983,7 +14980,7 @@
         <v>6</v>
       </c>
       <c r="D654" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.35">
@@ -14997,7 +14994,7 @@
         <v>6</v>
       </c>
       <c r="D655" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.35">
@@ -15011,7 +15008,7 @@
         <v>6</v>
       </c>
       <c r="D656" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.35">
@@ -15305,7 +15302,7 @@
         <v>6</v>
       </c>
       <c r="D677" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.35">
@@ -15347,7 +15344,7 @@
         <v>6</v>
       </c>
       <c r="D680" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.35">
@@ -15403,7 +15400,7 @@
         <v>6</v>
       </c>
       <c r="D684" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.35">
@@ -15473,7 +15470,7 @@
         <v>6</v>
       </c>
       <c r="D689" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.35">
@@ -15515,7 +15512,7 @@
         <v>6</v>
       </c>
       <c r="D692" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.35">
@@ -15529,7 +15526,7 @@
         <v>6</v>
       </c>
       <c r="D693" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.35">
@@ -16089,7 +16086,7 @@
         <v>6</v>
       </c>
       <c r="D733" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.35">
@@ -16215,7 +16212,7 @@
         <v>6</v>
       </c>
       <c r="D742" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.35">
@@ -16257,7 +16254,7 @@
         <v>6</v>
       </c>
       <c r="D745" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.35">
@@ -16271,7 +16268,7 @@
         <v>6</v>
       </c>
       <c r="D746" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.35">
@@ -16313,7 +16310,7 @@
         <v>6</v>
       </c>
       <c r="D749" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.35">
@@ -16327,7 +16324,7 @@
         <v>6</v>
       </c>
       <c r="D750" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.35">
@@ -16341,7 +16338,7 @@
         <v>6</v>
       </c>
       <c r="D751" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.35">
@@ -16495,7 +16492,7 @@
         <v>6</v>
       </c>
       <c r="D762" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.35">
@@ -16523,7 +16520,7 @@
         <v>6</v>
       </c>
       <c r="D764" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.35">
@@ -16537,7 +16534,7 @@
         <v>6</v>
       </c>
       <c r="D765" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.35">
@@ -16551,7 +16548,7 @@
         <v>6</v>
       </c>
       <c r="D766" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.35">
@@ -16607,7 +16604,7 @@
         <v>6</v>
       </c>
       <c r="D770" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.35">
@@ -16621,7 +16618,7 @@
         <v>6</v>
       </c>
       <c r="D771" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.35">
@@ -16635,7 +16632,7 @@
         <v>6</v>
       </c>
       <c r="D772" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.35">
@@ -16649,7 +16646,7 @@
         <v>6</v>
       </c>
       <c r="D773" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.35">
@@ -16663,21 +16660,21 @@
         <v>6</v>
       </c>
       <c r="D774" t="s">
-        <v>98</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C775" t="s">
+        <v>6</v>
+      </c>
+      <c r="D775" t="s">
         <v>1561</v>
-      </c>
-      <c r="B775" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C775" t="s">
-        <v>6</v>
-      </c>
-      <c r="D775" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.35">
@@ -16691,7 +16688,7 @@
         <v>6</v>
       </c>
       <c r="D776" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.35">
@@ -16705,7 +16702,7 @@
         <v>6</v>
       </c>
       <c r="D777" t="s">
-        <v>1563</v>
+        <v>22</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.35">
@@ -16719,7 +16716,7 @@
         <v>6</v>
       </c>
       <c r="D778" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.35">
@@ -16733,7 +16730,7 @@
         <v>6</v>
       </c>
       <c r="D779" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.35">
@@ -16747,7 +16744,7 @@
         <v>6</v>
       </c>
       <c r="D780" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.35">
@@ -16761,7 +16758,7 @@
         <v>6</v>
       </c>
       <c r="D781" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.35">
@@ -16775,7 +16772,7 @@
         <v>6</v>
       </c>
       <c r="D782" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.35">
@@ -16831,7 +16828,7 @@
         <v>6</v>
       </c>
       <c r="D786" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.35">
@@ -16859,7 +16856,7 @@
         <v>6</v>
       </c>
       <c r="D788" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.35">
@@ -16887,7 +16884,7 @@
         <v>6</v>
       </c>
       <c r="D790" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.35">
@@ -16901,7 +16898,7 @@
         <v>6</v>
       </c>
       <c r="D791" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.35">
@@ -16915,7 +16912,7 @@
         <v>6</v>
       </c>
       <c r="D792" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.35">
@@ -16929,7 +16926,7 @@
         <v>6</v>
       </c>
       <c r="D793" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.35">
@@ -16943,7 +16940,7 @@
         <v>6</v>
       </c>
       <c r="D794" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.35">
@@ -16971,21 +16968,21 @@
         <v>6</v>
       </c>
       <c r="D796" t="s">
-        <v>7</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C797" t="s">
+        <v>6</v>
+      </c>
+      <c r="D797" t="s">
         <v>1606</v>
-      </c>
-      <c r="B797" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C797" t="s">
-        <v>6</v>
-      </c>
-      <c r="D797" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.35">
@@ -16999,7 +16996,7 @@
         <v>6</v>
       </c>
       <c r="D798" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.35">
@@ -17013,7 +17010,7 @@
         <v>6</v>
       </c>
       <c r="D799" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.35">
@@ -17021,41 +17018,41 @@
         <v>1613</v>
       </c>
       <c r="B800" t="s">
-        <v>1614</v>
+        <v>950</v>
       </c>
       <c r="C800" t="s">
         <v>6</v>
       </c>
       <c r="D800" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B801" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="C801" t="s">
         <v>6</v>
       </c>
       <c r="D801" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B802" t="s">
         <v>1616</v>
       </c>
-      <c r="B802" t="s">
-        <v>942</v>
-      </c>
       <c r="C802" t="s">
         <v>6</v>
       </c>
       <c r="D802" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.35">
@@ -17063,27 +17060,27 @@
         <v>1617</v>
       </c>
       <c r="B803" t="s">
-        <v>1618</v>
+        <v>1048</v>
       </c>
       <c r="C803" t="s">
         <v>6</v>
       </c>
       <c r="D803" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B804" t="s">
         <v>1619</v>
       </c>
-      <c r="B804" t="s">
-        <v>1050</v>
-      </c>
       <c r="C804" t="s">
         <v>6</v>
       </c>
       <c r="D804" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.35">
@@ -17097,7 +17094,7 @@
         <v>6</v>
       </c>
       <c r="D805" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.35">
@@ -17111,21 +17108,21 @@
         <v>6</v>
       </c>
       <c r="D806" t="s">
-        <v>1608</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B807" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="C807" t="s">
         <v>6</v>
       </c>
       <c r="D807" t="s">
-        <v>1626</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.35">
@@ -17139,7 +17136,7 @@
         <v>6</v>
       </c>
       <c r="D808" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.35">
@@ -17153,7 +17150,7 @@
         <v>6</v>
       </c>
       <c r="D809" t="s">
-        <v>1608</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.35">
@@ -17167,7 +17164,7 @@
         <v>6</v>
       </c>
       <c r="D810" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.35">
@@ -17181,7 +17178,7 @@
         <v>6</v>
       </c>
       <c r="D811" t="s">
-        <v>1626</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.35">
@@ -17195,7 +17192,7 @@
         <v>6</v>
       </c>
       <c r="D812" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.35">
@@ -17209,7 +17206,7 @@
         <v>6</v>
       </c>
       <c r="D813" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.35">
@@ -17223,7 +17220,7 @@
         <v>6</v>
       </c>
       <c r="D814" t="s">
-        <v>1608</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.35">
@@ -17237,7 +17234,7 @@
         <v>6</v>
       </c>
       <c r="D815" t="s">
-        <v>1626</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.35">
@@ -17251,7 +17248,7 @@
         <v>6</v>
       </c>
       <c r="D816" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.35">
@@ -17265,7 +17262,7 @@
         <v>6</v>
       </c>
       <c r="D817" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.35">
@@ -17279,7 +17276,7 @@
         <v>6</v>
       </c>
       <c r="D818" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.35">
@@ -17293,7 +17290,7 @@
         <v>6</v>
       </c>
       <c r="D819" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.35">
@@ -17307,7 +17304,7 @@
         <v>6</v>
       </c>
       <c r="D820" t="s">
-        <v>1608</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.35">
@@ -17321,7 +17318,7 @@
         <v>6</v>
       </c>
       <c r="D821" t="s">
-        <v>1626</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.35">
@@ -17335,7 +17332,7 @@
         <v>6</v>
       </c>
       <c r="D822" t="s">
-        <v>1608</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.35">
@@ -17349,7 +17346,7 @@
         <v>6</v>
       </c>
       <c r="D823" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.35">
@@ -17363,7 +17360,7 @@
         <v>6</v>
       </c>
       <c r="D824" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.35">
@@ -17377,7 +17374,7 @@
         <v>6</v>
       </c>
       <c r="D825" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.35">
@@ -17391,7 +17388,7 @@
         <v>6</v>
       </c>
       <c r="D826" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.35">
@@ -17405,7 +17402,7 @@
         <v>6</v>
       </c>
       <c r="D827" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.35">
@@ -17419,7 +17416,7 @@
         <v>6</v>
       </c>
       <c r="D828" t="s">
-        <v>1626</v>
+        <v>12</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.35">
@@ -17433,7 +17430,7 @@
         <v>6</v>
       </c>
       <c r="D829" t="s">
-        <v>12</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.35">
@@ -17447,7 +17444,7 @@
         <v>6</v>
       </c>
       <c r="D830" t="s">
-        <v>1563</v>
+        <v>12</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.35">
@@ -17461,7 +17458,7 @@
         <v>6</v>
       </c>
       <c r="D831" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.35">
@@ -17475,7 +17472,7 @@
         <v>6</v>
       </c>
       <c r="D832" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.35">
@@ -17489,7 +17486,7 @@
         <v>6</v>
       </c>
       <c r="D833" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.35">
@@ -17503,7 +17500,7 @@
         <v>6</v>
       </c>
       <c r="D834" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.35">
@@ -17517,7 +17514,7 @@
         <v>6</v>
       </c>
       <c r="D835" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.35">
@@ -17531,7 +17528,7 @@
         <v>6</v>
       </c>
       <c r="D836" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.35">
@@ -17545,7 +17542,7 @@
         <v>6</v>
       </c>
       <c r="D837" t="s">
-        <v>98</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.35">
@@ -17559,7 +17556,7 @@
         <v>6</v>
       </c>
       <c r="D838" t="s">
-        <v>1608</v>
+        <v>7</v>
       </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.35">
@@ -17573,7 +17570,7 @@
         <v>6</v>
       </c>
       <c r="D839" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.35">
@@ -17587,7 +17584,7 @@
         <v>6</v>
       </c>
       <c r="D840" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.35">
@@ -17615,7 +17612,7 @@
         <v>6</v>
       </c>
       <c r="D842" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.35">
@@ -17629,7 +17626,7 @@
         <v>6</v>
       </c>
       <c r="D843" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.35">
@@ -17643,7 +17640,7 @@
         <v>6</v>
       </c>
       <c r="D844" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.35">
@@ -17671,7 +17668,7 @@
         <v>6</v>
       </c>
       <c r="D846" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.35">
@@ -17685,7 +17682,7 @@
         <v>6</v>
       </c>
       <c r="D847" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.35">
@@ -17713,7 +17710,7 @@
         <v>6</v>
       </c>
       <c r="D849" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.35">
@@ -17727,7 +17724,7 @@
         <v>6</v>
       </c>
       <c r="D850" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.35">
@@ -17755,7 +17752,7 @@
         <v>6</v>
       </c>
       <c r="D852" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.35">
@@ -17769,7 +17766,7 @@
         <v>6</v>
       </c>
       <c r="D853" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.35">
@@ -17783,7 +17780,7 @@
         <v>6</v>
       </c>
       <c r="D854" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.35">
@@ -17797,7 +17794,7 @@
         <v>6</v>
       </c>
       <c r="D855" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.35">
@@ -17811,7 +17808,7 @@
         <v>6</v>
       </c>
       <c r="D856" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.35">
@@ -17825,7 +17822,7 @@
         <v>6</v>
       </c>
       <c r="D857" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.35">
@@ -17839,7 +17836,7 @@
         <v>6</v>
       </c>
       <c r="D858" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.35">
@@ -17853,7 +17850,7 @@
         <v>6</v>
       </c>
       <c r="D859" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.35">
@@ -17881,7 +17878,7 @@
         <v>6</v>
       </c>
       <c r="D861" t="s">
-        <v>15</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.35">
@@ -17895,7 +17892,7 @@
         <v>6</v>
       </c>
       <c r="D862" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.35">
@@ -17909,7 +17906,7 @@
         <v>6</v>
       </c>
       <c r="D863" t="s">
-        <v>1608</v>
+        <v>12</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.35">
@@ -17937,7 +17934,7 @@
         <v>6</v>
       </c>
       <c r="D865" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.35">
@@ -17951,7 +17948,7 @@
         <v>6</v>
       </c>
       <c r="D866" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.35">
@@ -17965,7 +17962,7 @@
         <v>6</v>
       </c>
       <c r="D867" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.35">
@@ -17979,7 +17976,7 @@
         <v>6</v>
       </c>
       <c r="D868" t="s">
-        <v>15</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.35">
@@ -17993,7 +17990,7 @@
         <v>6</v>
       </c>
       <c r="D869" t="s">
-        <v>1626</v>
+        <v>12</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.35">
@@ -18007,7 +18004,7 @@
         <v>6</v>
       </c>
       <c r="D870" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.35">
@@ -18091,7 +18088,7 @@
         <v>6</v>
       </c>
       <c r="D876" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.35">
@@ -18105,7 +18102,7 @@
         <v>6</v>
       </c>
       <c r="D877" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.35">
@@ -18175,7 +18172,7 @@
         <v>6</v>
       </c>
       <c r="D882" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.35">
@@ -18189,7 +18186,7 @@
         <v>6</v>
       </c>
       <c r="D883" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.35">
@@ -18203,7 +18200,7 @@
         <v>6</v>
       </c>
       <c r="D884" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.35">
@@ -18217,7 +18214,7 @@
         <v>6</v>
       </c>
       <c r="D885" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.35">
@@ -18231,7 +18228,7 @@
         <v>6</v>
       </c>
       <c r="D886" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.35">
@@ -18245,7 +18242,7 @@
         <v>6</v>
       </c>
       <c r="D887" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.35">
@@ -18259,7 +18256,7 @@
         <v>6</v>
       </c>
       <c r="D888" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.35">
@@ -18287,7 +18284,7 @@
         <v>6</v>
       </c>
       <c r="D890" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.35">
@@ -18315,7 +18312,7 @@
         <v>6</v>
       </c>
       <c r="D892" t="s">
-        <v>35</v>
+        <v>316</v>
       </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.35">
@@ -18329,7 +18326,7 @@
         <v>6</v>
       </c>
       <c r="D893" t="s">
-        <v>316</v>
+        <v>35</v>
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.35">
@@ -18346,21 +18343,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="895" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A895" t="s">
-        <v>1801</v>
-      </c>
-      <c r="B895" t="s">
-        <v>1802</v>
-      </c>
-      <c r="C895" t="s">
-        <v>6</v>
-      </c>
-      <c r="D895" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:D894" xr:uid="{6CE34171-B02B-473B-8EA7-74B9D28253F0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>